--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E40E8C-30EE-42FB-BDD4-96458577F3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2BBFA-E463-46E7-8633-A7C6ACACC594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11010" windowWidth="28770" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="10290" windowWidth="28770" windowHeight="5325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="95">
   <si>
     <t>provincia</t>
   </si>
@@ -344,6 +344,15 @@
   </si>
   <si>
     <t>retraso mental</t>
+  </si>
+  <si>
+    <t>Manicaragua</t>
+  </si>
+  <si>
+    <t>Encamado</t>
+  </si>
+  <si>
+    <t>Esquizofrenia Paranoide</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -430,11 +439,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="63">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -638,60 +655,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:AY57" headerRowDxfId="60">
-  <autoFilter ref="A1:AY57" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
-  <tableColumns count="51">
-    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="59"/>
-    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BA59" headerRowDxfId="62">
+  <autoFilter ref="A1:BA59" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+  <tableColumns count="53">
+    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="61"/>
+    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="59"/>
     <tableColumn id="3" xr3:uid="{17C6E5D9-6AC5-4F4B-AAD9-7DDD8D7C6756}" name="edad"/>
     <tableColumn id="4" xr3:uid="{56FD56BB-76B8-4EEB-A922-A7E5CFDA8389}" name="Nacionalidad"/>
     <tableColumn id="5" xr3:uid="{0254E852-FB09-49A4-ACA2-FB3969ACD460}" name="diasevolucion"/>
     <tableColumn id="6" xr3:uid="{339A6354-F056-4199-AC0B-20EC4DA08AA3}" name="municipio"/>
     <tableColumn id="7" xr3:uid="{180D6C9F-A10F-4C49-A8DD-31E3F2D4C1BC}" name="provincia"/>
-    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión arterial" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia senil" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de cadera" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="27"/>
-    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="26"/>
-    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="24"/>
-    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="glaucoma " totalsRowFunction="sum" totalsRowDxfId="23"/>
-    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="22"/>
-    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name=" enfermedad pulmonar obstructiva crónica" totalsRowFunction="sum" totalsRowDxfId="21"/>
-    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="20"/>
-    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="cardiopatía hipertensiva" totalsRowFunction="sum" totalsRowDxfId="19"/>
-    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="18"/>
-    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a repetición" totalsRowFunction="sum" totalsRowDxfId="17"/>
-    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="16"/>
-    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="15"/>
-    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="ulcera péptica" totalsRowFunction="sum" totalsRowDxfId="14"/>
-    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="fumador" totalsRowFunction="sum" totalsRowDxfId="13"/>
-    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="miastenia grave" totalsRowFunction="sum" totalsRowDxfId="12"/>
-    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="11"/>
-    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="10"/>
-    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name=" aneurisma de la aorta" totalsRowFunction="sum" totalsRowDxfId="9"/>
-    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="neumopatía crónica" totalsRowFunction="sum" totalsRowDxfId="8"/>
-    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="7"/>
-    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso perianal" totalsRowFunction="sum" totalsRowDxfId="6"/>
-    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="5"/>
-    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía diabética" totalsRowFunction="sum" totalsRowDxfId="4"/>
-    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="insuficiencia cortico suprarrenal" totalsRowFunction="sum" totalsRowDxfId="3"/>
-    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="2"/>
-    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" hipoacusia moderada" totalsRowDxfId="1"/>
-    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="retraso mental" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión arterial" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia senil" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de cadera" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="glaucoma " totalsRowFunction="sum" totalsRowDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="24"/>
+    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name=" enfermedad pulmonar obstructiva crónica" totalsRowFunction="sum" totalsRowDxfId="23"/>
+    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="cardiopatía hipertensiva" totalsRowFunction="sum" totalsRowDxfId="21"/>
+    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="20"/>
+    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a repetición" totalsRowFunction="sum" totalsRowDxfId="19"/>
+    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="18"/>
+    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="17"/>
+    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="ulcera péptica" totalsRowFunction="sum" totalsRowDxfId="16"/>
+    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="fumador" totalsRowFunction="sum" totalsRowDxfId="15"/>
+    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="miastenia grave" totalsRowFunction="sum" totalsRowDxfId="14"/>
+    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="13"/>
+    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="12"/>
+    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name=" aneurisma de la aorta" totalsRowFunction="sum" totalsRowDxfId="11"/>
+    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="neumopatía crónica" totalsRowFunction="sum" totalsRowDxfId="10"/>
+    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="9"/>
+    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso perianal" totalsRowFunction="sum" totalsRowDxfId="8"/>
+    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="7"/>
+    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía diabética" totalsRowFunction="sum" totalsRowDxfId="6"/>
+    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="insuficiencia cortico suprarrenal" totalsRowFunction="sum" totalsRowDxfId="5"/>
+    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="4"/>
+    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" hipoacusia moderada" totalsRowDxfId="3"/>
+    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="retraso mental" totalsRowDxfId="2"/>
+    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="1"/>
+    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -960,11 +979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY57"/>
+  <dimension ref="A1:BA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX57" sqref="AX57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1037,7 @@
     <col min="48" max="48" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1172,8 +1191,14 @@
       <c r="AY1" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
@@ -1196,7 +1221,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43916</v>
       </c>
@@ -1225,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -1260,7 +1285,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43918</v>
       </c>
@@ -1329,7 +1354,7 @@
       <c r="AV5"/>
       <c r="AW5"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -1373,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43920</v>
       </c>
@@ -1411,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43923</v>
       </c>
@@ -1446,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43925</v>
       </c>
@@ -1509,7 +1534,7 @@
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43926</v>
       </c>
@@ -1538,7 +1563,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43927</v>
       </c>
@@ -1567,7 +1592,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43927</v>
       </c>
@@ -1632,7 +1657,7 @@
       <c r="AV12"/>
       <c r="AW12"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43929</v>
       </c>
@@ -1664,7 +1689,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43929</v>
       </c>
@@ -1701,7 +1726,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -1739,7 +1764,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43929</v>
       </c>
@@ -3491,7 +3516,7 @@
       </c>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>43944</v>
       </c>
@@ -3532,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>43944</v>
       </c>
@@ -3567,7 +3592,7 @@
       <c r="V50" s="10"/>
       <c r="W50" s="10"/>
     </row>
-    <row r="51" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43945</v>
       </c>
@@ -3636,7 +3661,7 @@
       <c r="AV51"/>
       <c r="AW51"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43945</v>
       </c>
@@ -3670,7 +3695,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>43946</v>
       </c>
@@ -3733,7 +3758,7 @@
       <c r="AV53" s="8"/>
       <c r="AW53" s="8"/>
     </row>
-    <row r="54" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>43946</v>
       </c>
@@ -3769,7 +3794,7 @@
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
     </row>
-    <row r="55" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>43946</v>
       </c>
@@ -3800,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43947</v>
       </c>
@@ -3832,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43947</v>
       </c>
@@ -3858,6 +3883,87 @@
         <v>1</v>
       </c>
       <c r="AY57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>43948</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="8">
+        <v>85</v>
+      </c>
+      <c r="F58" s="8">
+        <v>10</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="10">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10">
+        <v>1</v>
+      </c>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="AB58" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>43948</v>
+      </c>
+      <c r="B59" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="6">
+        <v>63</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="BA59" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2BBFA-E463-46E7-8633-A7C6ACACC594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B22E8-CCEB-4443-9CFE-5ED6000C48F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="10290" windowWidth="28770" windowHeight="5325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="95">
   <si>
     <t>provincia</t>
   </si>
@@ -416,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -438,7 +438,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -655,8 +654,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BA59" headerRowDxfId="62">
-  <autoFilter ref="A1:BA59" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BA62" headerRowDxfId="62">
+  <autoFilter ref="A1:BA62" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="61"/>
     <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="60"/>
@@ -979,11 +978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA59"/>
+  <dimension ref="A1:BA62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3825,64 +3824,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43947</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="5">
         <v>43947</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="6">
         <v>53</v>
       </c>
-      <c r="G56" t="s">
+      <c r="E56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="4">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1</v>
-      </c>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="AI56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="I56" s="7">
+        <v>1</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="AI56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43947</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="5">
         <v>43938</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="6">
         <v>69</v>
       </c>
-      <c r="G57" t="s">
+      <c r="E57" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="AX57">
-        <v>1</v>
-      </c>
-      <c r="AY57">
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="AX57" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY57" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3890,11 +3915,14 @@
       <c r="A58" s="9">
         <v>43948</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="8">
         <v>85</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F58" s="8">
         <v>10</v>
@@ -3937,11 +3965,14 @@
       <c r="B59" s="5">
         <v>43948</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="6">
         <v>63</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>81</v>
@@ -3967,6 +3998,131 @@
         <v>1</v>
       </c>
     </row>
+    <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B60" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6">
+        <v>77</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7">
+        <v>1</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7">
+        <v>1</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7">
+        <v>1</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7">
+        <v>1</v>
+      </c>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+    </row>
+    <row r="61" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B61" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6">
+        <v>80</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7">
+        <v>1</v>
+      </c>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+    </row>
+    <row r="62" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>43949</v>
+      </c>
+      <c r="B62" s="5">
+        <v>43929</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6">
+        <v>95</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1</v>
+      </c>
+      <c r="J62" s="7">
+        <v>1</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B22E8-CCEB-4443-9CFE-5ED6000C48F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8438141D-64CE-4989-8056-65EB4E451C72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6105" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="97">
   <si>
     <t>provincia</t>
   </si>
@@ -353,6 +352,12 @@
   </si>
   <si>
     <t>Esquizofrenia Paranoide</t>
+  </si>
+  <si>
+    <t>Enfermedad Cerebral Crónica</t>
+  </si>
+  <si>
+    <t>Alcoholismo</t>
   </si>
 </sst>
 </file>
@@ -360,7 +365,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -416,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -438,198 +443,213 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -654,62 +674,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BA62" headerRowDxfId="62">
-  <autoFilter ref="A1:BA62" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
-  <tableColumns count="53">
-    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="61"/>
-    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BC67" headerRowDxfId="65">
+  <autoFilter ref="A1:BC67" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+  <sortState ref="A2:BC67">
+    <sortCondition ref="A1:A67"/>
+  </sortState>
+  <tableColumns count="55">
+    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="64"/>
+    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="62"/>
     <tableColumn id="3" xr3:uid="{17C6E5D9-6AC5-4F4B-AAD9-7DDD8D7C6756}" name="edad"/>
     <tableColumn id="4" xr3:uid="{56FD56BB-76B8-4EEB-A922-A7E5CFDA8389}" name="Nacionalidad"/>
     <tableColumn id="5" xr3:uid="{0254E852-FB09-49A4-ACA2-FB3969ACD460}" name="diasevolucion"/>
     <tableColumn id="6" xr3:uid="{339A6354-F056-4199-AC0B-20EC4DA08AA3}" name="municipio"/>
     <tableColumn id="7" xr3:uid="{180D6C9F-A10F-4C49-A8DD-31E3F2D4C1BC}" name="provincia"/>
-    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión arterial" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia senil" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de cadera" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="27"/>
-    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="26"/>
-    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="glaucoma " totalsRowFunction="sum" totalsRowDxfId="25"/>
-    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="24"/>
-    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name=" enfermedad pulmonar obstructiva crónica" totalsRowFunction="sum" totalsRowDxfId="23"/>
-    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="22"/>
-    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="cardiopatía hipertensiva" totalsRowFunction="sum" totalsRowDxfId="21"/>
-    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="20"/>
-    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a repetición" totalsRowFunction="sum" totalsRowDxfId="19"/>
-    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="18"/>
-    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="17"/>
-    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="ulcera péptica" totalsRowFunction="sum" totalsRowDxfId="16"/>
-    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="fumador" totalsRowFunction="sum" totalsRowDxfId="15"/>
-    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="miastenia grave" totalsRowFunction="sum" totalsRowDxfId="14"/>
-    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="13"/>
-    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="12"/>
-    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name=" aneurisma de la aorta" totalsRowFunction="sum" totalsRowDxfId="11"/>
-    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="neumopatía crónica" totalsRowFunction="sum" totalsRowDxfId="10"/>
-    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="9"/>
-    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso perianal" totalsRowFunction="sum" totalsRowDxfId="8"/>
-    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="7"/>
-    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía diabética" totalsRowFunction="sum" totalsRowDxfId="6"/>
-    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="insuficiencia cortico suprarrenal" totalsRowFunction="sum" totalsRowDxfId="5"/>
-    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="4"/>
-    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" hipoacusia moderada" totalsRowDxfId="3"/>
-    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="retraso mental" totalsRowDxfId="2"/>
-    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="1"/>
-    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión arterial" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia senil" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de cadera" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="30"/>
+    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="29"/>
+    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="glaucoma " totalsRowFunction="sum" totalsRowDxfId="28"/>
+    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name=" enfermedad pulmonar obstructiva crónica" totalsRowFunction="sum" totalsRowDxfId="26"/>
+    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="25"/>
+    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="cardiopatía hipertensiva" totalsRowFunction="sum" totalsRowDxfId="24"/>
+    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="23"/>
+    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a repetición" totalsRowFunction="sum" totalsRowDxfId="22"/>
+    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="21"/>
+    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="20"/>
+    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="ulcera péptica" totalsRowFunction="sum" totalsRowDxfId="19"/>
+    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="fumador" totalsRowFunction="sum" totalsRowDxfId="18"/>
+    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="miastenia grave" totalsRowFunction="sum" totalsRowDxfId="17"/>
+    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="16"/>
+    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="15"/>
+    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name=" aneurisma de la aorta" totalsRowFunction="sum" totalsRowDxfId="14"/>
+    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="neumopatía crónica" totalsRowFunction="sum" totalsRowDxfId="13"/>
+    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="12"/>
+    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso perianal" totalsRowFunction="sum" totalsRowDxfId="11"/>
+    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="10"/>
+    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía diabética" totalsRowFunction="sum" totalsRowDxfId="9"/>
+    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="insuficiencia cortico suprarrenal" totalsRowFunction="sum" totalsRowDxfId="8"/>
+    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="7"/>
+    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" hipoacusia moderada" totalsRowDxfId="6"/>
+    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="retraso mental" totalsRowDxfId="5"/>
+    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="4"/>
+    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="3"/>
+    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="2"/>
+    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -978,11 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA62"/>
+  <dimension ref="A1:BC67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1061,7 @@
     <col min="48" max="48" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1196,8 +1221,14 @@
       <c r="BA1" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
@@ -1220,7 +1251,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43916</v>
       </c>
@@ -1249,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -1284,7 +1315,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43918</v>
       </c>
@@ -1353,7 +1384,7 @@
       <c r="AV5"/>
       <c r="AW5"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -1397,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43920</v>
       </c>
@@ -1435,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43923</v>
       </c>
@@ -1470,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43925</v>
       </c>
@@ -1533,7 +1564,7 @@
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43926</v>
       </c>
@@ -1562,7 +1593,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43927</v>
       </c>
@@ -1591,7 +1622,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43927</v>
       </c>
@@ -1656,7 +1687,7 @@
       <c r="AV12"/>
       <c r="AW12"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43929</v>
       </c>
@@ -1688,7 +1719,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43929</v>
       </c>
@@ -1725,7 +1756,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -1763,7 +1794,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43929</v>
       </c>
@@ -3515,7 +3546,7 @@
       </c>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>43944</v>
       </c>
@@ -3556,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>43944</v>
       </c>
@@ -3591,7 +3622,7 @@
       <c r="V50" s="10"/>
       <c r="W50" s="10"/>
     </row>
-    <row r="51" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43945</v>
       </c>
@@ -3660,7 +3691,7 @@
       <c r="AV51"/>
       <c r="AW51"/>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43945</v>
       </c>
@@ -3694,7 +3725,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>43946</v>
       </c>
@@ -3757,7 +3788,7 @@
       <c r="AV53" s="8"/>
       <c r="AW53" s="8"/>
     </row>
-    <row r="54" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>43946</v>
       </c>
@@ -3793,7 +3824,7 @@
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
     </row>
-    <row r="55" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>43946</v>
       </c>
@@ -3824,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43947</v>
       </c>
@@ -3868,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43947</v>
       </c>
@@ -3911,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>43948</v>
       </c>
@@ -3958,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43948</v>
       </c>
@@ -3998,119 +4029,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B60" s="5">
-        <v>43948</v>
+        <v>43929</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="6">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="7"/>
+      <c r="I60" s="7">
+        <v>1</v>
+      </c>
       <c r="J60" s="7">
         <v>1</v>
       </c>
       <c r="K60" s="7"/>
-      <c r="L60" s="7">
-        <v>1</v>
-      </c>
+      <c r="L60" s="7"/>
       <c r="M60" s="7"/>
-      <c r="N60" s="7">
-        <v>1</v>
-      </c>
+      <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="7">
-        <v>1</v>
-      </c>
+      <c r="S60" s="7"/>
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
     </row>
-    <row r="61" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43950</v>
       </c>
       <c r="B61" s="5">
-        <v>43935</v>
+        <v>43948</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="6">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7">
-        <v>1</v>
-      </c>
-      <c r="L61" s="7"/>
+      <c r="J61" s="7">
+        <v>1</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7">
+        <v>1</v>
+      </c>
       <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
+      <c r="N61" s="7">
+        <v>1</v>
+      </c>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
+      <c r="S61" s="7">
+        <v>1</v>
+      </c>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
     </row>
-    <row r="62" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B62" s="5">
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="6">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="7">
-        <v>1</v>
-      </c>
-      <c r="J62" s="7">
-        <v>1</v>
-      </c>
-      <c r="K62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7">
+        <v>1</v>
+      </c>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
@@ -4123,6 +4154,224 @@
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
     </row>
+    <row r="63" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43950</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63"/>
+      <c r="AX63"/>
+      <c r="AY63"/>
+      <c r="AZ63"/>
+      <c r="BA63"/>
+      <c r="BB63"/>
+      <c r="BC63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>43951</v>
+      </c>
+      <c r="B64" s="11">
+        <v>43951</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="6">
+        <v>86</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7">
+        <v>1</v>
+      </c>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="6"/>
+      <c r="AQ64" s="6"/>
+      <c r="AR64" s="6"/>
+      <c r="AS64" s="6"/>
+      <c r="AT64" s="6"/>
+      <c r="AU64" s="6"/>
+      <c r="AV64" s="6"/>
+      <c r="AW64" s="6"/>
+      <c r="AX64" s="6"/>
+      <c r="AY64" s="6"/>
+      <c r="AZ64" s="6"/>
+      <c r="BA64" s="6"/>
+      <c r="BB64" s="6">
+        <v>1</v>
+      </c>
+      <c r="BC64" s="6"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>43951</v>
+      </c>
+      <c r="B65" s="11">
+        <v>43951</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>72</v>
+      </c>
+      <c r="E65" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+    </row>
+    <row r="66" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="C66" s="11"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+    </row>
+    <row r="67" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="C67" s="11"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8438141D-64CE-4989-8056-65EB4E451C72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55378A1A-9B11-49A1-AE48-6162C0B0B30B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6105" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="5970" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="97">
   <si>
     <t>provincia</t>
   </si>
@@ -452,15 +452,15 @@
   </cellStyles>
   <dxfs count="66">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -734,7 +734,7 @@
     <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="4"/>
     <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="3"/>
     <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="2"/>
-    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1006,8 +1006,8 @@
   <dimension ref="A1:BC67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,7 +2338,9 @@
       <c r="A28" s="9">
         <v>43936</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="12">
+        <v>43936</v>
+      </c>
       <c r="C28" s="9" t="s">
         <v>5</v>
       </c>
@@ -2590,72 +2592,44 @@
       <c r="AV31" s="6"/>
       <c r="AW31" s="6"/>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+    <row r="32" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>43937</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="11">
+        <v>43935</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>76</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="E32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="10">
-        <v>1</v>
-      </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="8">
-        <v>1</v>
-      </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="8"/>
-      <c r="AO32" s="8"/>
-      <c r="AP32" s="8"/>
-      <c r="AQ32" s="8"/>
-      <c r="AR32" s="8"/>
-      <c r="AS32" s="8"/>
-      <c r="AT32" s="8"/>
-      <c r="AU32" s="8"/>
-      <c r="AV32" s="8"/>
-      <c r="AW32" s="8"/>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="6">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -2901,43 +2875,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+    <row r="37" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>43939</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="11">
+        <v>43937</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>88</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="8" t="s">
+      <c r="E37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10">
-        <v>1</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="8">
-        <v>1</v>
-      </c>
-      <c r="R37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="6">
+        <v>1</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
@@ -3010,74 +2987,45 @@
       <c r="AV38" s="8"/>
       <c r="AW38" s="8"/>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+    <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>43940</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="11">
+        <v>43939</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <v>77</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
+      <c r="E39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="10">
-        <v>1</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10">
-        <v>1</v>
-      </c>
-      <c r="L39" s="8"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
-      <c r="AM39" s="8"/>
-      <c r="AN39" s="8"/>
-      <c r="AO39" s="8"/>
-      <c r="AP39" s="8"/>
-      <c r="AQ39" s="8"/>
-      <c r="AR39" s="8"/>
-      <c r="AS39" s="8"/>
-      <c r="AT39" s="8"/>
-      <c r="AU39" s="8"/>
-      <c r="AV39" s="8"/>
-      <c r="AW39" s="8"/>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7">
+        <v>1</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -3546,81 +3494,87 @@
       </c>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+    <row r="49" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>43944</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="11">
+        <v>43944</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="6">
+        <v>84</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7">
+        <v>1</v>
+      </c>
+      <c r="R49" s="7">
+        <v>1</v>
+      </c>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>43944</v>
+      </c>
+      <c r="B50" s="11">
+        <v>43937</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6">
         <v>80</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="8" t="s">
+      <c r="E50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="10">
-        <v>1</v>
-      </c>
-      <c r="J49" s="10">
-        <v>1</v>
-      </c>
-      <c r="K49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10">
-        <v>1</v>
-      </c>
-      <c r="R49" s="10">
-        <v>1</v>
-      </c>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>43944</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="8">
-        <v>84</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="10">
-        <v>1</v>
-      </c>
-      <c r="J50" s="10">
-        <v>1</v>
-      </c>
-      <c r="K50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
     </row>
     <row r="51" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -3725,68 +3679,42 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+    <row r="53" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
         <v>43946</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="11">
+        <v>43935</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="8">
-        <v>84</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
+      <c r="D53" s="6">
+        <v>84</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8"/>
-      <c r="AJ53" s="8"/>
-      <c r="AK53" s="8"/>
-      <c r="AL53" s="8"/>
-      <c r="AM53" s="8"/>
-      <c r="AN53" s="8"/>
-      <c r="AO53" s="8"/>
-      <c r="AP53" s="8"/>
-      <c r="AQ53" s="8"/>
-      <c r="AR53" s="8"/>
-      <c r="AS53" s="8"/>
-      <c r="AT53" s="8"/>
-      <c r="AU53" s="8"/>
-      <c r="AV53" s="8"/>
-      <c r="AW53" s="8"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
     </row>
     <row r="54" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -3942,50 +3870,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+    <row r="58" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
         <v>43948</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="11">
+        <f>Tabla1[[#This Row],[Fecha de fallecimiento]]-Tabla1[[#This Row],[diasevolucion]]</f>
+        <v>43938</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="6">
         <v>85</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="8">
+      <c r="E58" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="6">
         <v>10</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="10">
-        <v>1</v>
-      </c>
-      <c r="J58" s="10">
-        <v>1</v>
-      </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="AB58" s="8">
-        <v>1</v>
-      </c>
-      <c r="AZ58" s="8">
+      <c r="I58" s="7">
+        <v>1</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="AB58" s="6">
+        <v>1</v>
+      </c>
+      <c r="AZ58" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4304,7 +4236,7 @@
       </c>
       <c r="BC64" s="6"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>43951</v>
       </c>
@@ -4336,41 +4268,95 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="C66" s="11"/>
+    <row r="66" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B66" s="13">
+        <v>43935</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6">
+        <v>59</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="6">
+        <v>23</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
+      <c r="O66" s="7">
+        <v>1</v>
+      </c>
       <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
+      <c r="Q66" s="7">
+        <v>1</v>
+      </c>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
     </row>
-    <row r="67" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="C67" s="11"/>
-      <c r="I67" s="7"/>
+    <row r="67" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B67" s="11">
+        <v>43831</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="6">
+        <v>87</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="7">
+        <v>1</v>
+      </c>
       <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="K67" s="7">
+        <v>1</v>
+      </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
+      <c r="R67" s="7">
+        <v>1</v>
+      </c>
       <c r="S67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
+      <c r="AZ67" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55378A1A-9B11-49A1-AE48-6162C0B0B30B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA65EBE-586E-4E15-ABD2-BB862F8ACFC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="5970" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="6000" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
   <si>
     <t>provincia</t>
   </si>
@@ -674,8 +674,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BC67" headerRowDxfId="65">
-  <autoFilter ref="A1:BC67" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BC68" headerRowDxfId="65">
+  <autoFilter ref="A1:BC68" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1003,11 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC67"/>
+  <dimension ref="A1:BC68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="BC64" s="6"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>43951</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>43952</v>
       </c>
@@ -4312,12 +4312,12 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
     </row>
-    <row r="67" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>43952</v>
       </c>
-      <c r="B67" s="11">
-        <v>43831</v>
+      <c r="B67" s="13">
+        <v>43952</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>6</v>
@@ -4355,6 +4355,38 @@
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="AZ67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>43953</v>
+      </c>
+      <c r="B68" s="13">
+        <v>43952</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>58</v>
+      </c>
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="BC68" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA65EBE-586E-4E15-ABD2-BB862F8ACFC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C994CB1E-78DA-4741-93DD-1DD33F9414C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="6000" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8715" windowWidth="28770" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="99">
   <si>
     <t>provincia</t>
   </si>
@@ -120,12 +121,6 @@
     <t>Comunicación Interventricular</t>
   </si>
   <si>
-    <t>Demencia senil</t>
-  </si>
-  <si>
-    <t>Fractura de cadera</t>
-  </si>
-  <si>
     <t>Desnutrición</t>
   </si>
   <si>
@@ -168,21 +163,12 @@
     <t>Insuficiencia Renal Crónica</t>
   </si>
   <si>
-    <t>Hipertensión arterial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glaucoma </t>
-  </si>
-  <si>
     <t>Fecha de fallecimiento</t>
   </si>
   <si>
     <t>Inmunodeficiencia</t>
   </si>
   <si>
-    <t xml:space="preserve"> enfermedad pulmonar obstructiva crónica</t>
-  </si>
-  <si>
     <t>Diabetes Mellitus</t>
   </si>
   <si>
@@ -204,15 +190,6 @@
     <t>Hepatitis C</t>
   </si>
   <si>
-    <t>cardiopatía hipertensiva</t>
-  </si>
-  <si>
-    <t>síndrome de Leriche</t>
-  </si>
-  <si>
-    <t>Neuropatías a repetición</t>
-  </si>
-  <si>
     <t>Centro Habana</t>
   </si>
   <si>
@@ -231,9 +208,6 @@
     <t>Habana del Este</t>
   </si>
   <si>
-    <t>ulcera péptica</t>
-  </si>
-  <si>
     <t>Taguasco</t>
   </si>
   <si>
@@ -261,36 +235,18 @@
     <t>Isla de la Juventud</t>
   </si>
   <si>
-    <t>miastenia grave</t>
-  </si>
-  <si>
-    <t>fumador</t>
-  </si>
-  <si>
     <t>Infarto anterior</t>
   </si>
   <si>
-    <t>dos stem puestos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aneurisma de la aorta</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
     <t>Remedios</t>
   </si>
   <si>
-    <t>neumopatía crónica</t>
-  </si>
-  <si>
     <t>Leucemia Mieloide Crónica</t>
   </si>
   <si>
-    <t>Absceso perianal</t>
-  </si>
-  <si>
     <t>Nacionalidad</t>
   </si>
   <si>
@@ -306,9 +262,6 @@
     <t xml:space="preserve">Alzheimer </t>
   </si>
   <si>
-    <t>Retinopatía diabética</t>
-  </si>
-  <si>
     <t>Contramaestre</t>
   </si>
   <si>
@@ -327,9 +280,6 @@
     <t>Boyeros</t>
   </si>
   <si>
-    <t>insuficiencia cortico suprarrenal</t>
-  </si>
-  <si>
     <t>VIH</t>
   </si>
   <si>
@@ -339,12 +289,6 @@
     <t>Camagüey</t>
   </si>
   <si>
-    <t xml:space="preserve"> hipoacusia moderada</t>
-  </si>
-  <si>
-    <t>retraso mental</t>
-  </si>
-  <si>
     <t>Manicaragua</t>
   </si>
   <si>
@@ -358,6 +302,69 @@
   </si>
   <si>
     <t>Alcoholismo</t>
+  </si>
+  <si>
+    <t>Colón</t>
+  </si>
+  <si>
+    <t>Infecciones Respiratorias Frecuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hipoacusia Moderada</t>
+  </si>
+  <si>
+    <t>Retraso Mental</t>
+  </si>
+  <si>
+    <t>Insuficiencia Córtico Suprarrenal</t>
+  </si>
+  <si>
+    <t>Neumopatía Crónica</t>
+  </si>
+  <si>
+    <t>Dos stem puestos</t>
+  </si>
+  <si>
+    <t>Miastenia Grave</t>
+  </si>
+  <si>
+    <t>Ulcera Péptica</t>
+  </si>
+  <si>
+    <t>Fumador</t>
+  </si>
+  <si>
+    <t>Síndrome de Leriche</t>
+  </si>
+  <si>
+    <t>Aneurisma de la Aorta</t>
+  </si>
+  <si>
+    <t>Cardiopatía Hipertensiva</t>
+  </si>
+  <si>
+    <t>Enfermedad Pulmonar Obstructiva Crónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glaucoma </t>
+  </si>
+  <si>
+    <t>Fractura de Cadera</t>
+  </si>
+  <si>
+    <t>Hipertensión Arterial</t>
+  </si>
+  <si>
+    <t>Demencia Senil</t>
+  </si>
+  <si>
+    <t>Neuropatías a Repetición</t>
+  </si>
+  <si>
+    <t>Retinopatía Diabética</t>
+  </si>
+  <si>
+    <t>Absceso Perianal</t>
   </si>
 </sst>
 </file>
@@ -365,7 +372,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -421,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,12 +452,17 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="67">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -643,13 +655,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -674,67 +686,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BC68" headerRowDxfId="65">
-  <autoFilter ref="A1:BC68" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BD70" headerRowDxfId="66">
+  <autoFilter ref="A1:BD70" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
-  <tableColumns count="55">
-    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="64"/>
-    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="62"/>
+  <tableColumns count="56">
+    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="65"/>
+    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="63"/>
     <tableColumn id="3" xr3:uid="{17C6E5D9-6AC5-4F4B-AAD9-7DDD8D7C6756}" name="edad"/>
     <tableColumn id="4" xr3:uid="{56FD56BB-76B8-4EEB-A922-A7E5CFDA8389}" name="Nacionalidad"/>
     <tableColumn id="5" xr3:uid="{0254E852-FB09-49A4-ACA2-FB3969ACD460}" name="diasevolucion"/>
     <tableColumn id="6" xr3:uid="{339A6354-F056-4199-AC0B-20EC4DA08AA3}" name="municipio"/>
     <tableColumn id="7" xr3:uid="{180D6C9F-A10F-4C49-A8DD-31E3F2D4C1BC}" name="provincia"/>
-    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión arterial" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia senil" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de cadera" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="32"/>
-    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="31"/>
-    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="30"/>
-    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="29"/>
-    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="glaucoma " totalsRowFunction="sum" totalsRowDxfId="28"/>
-    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="27"/>
-    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name=" enfermedad pulmonar obstructiva crónica" totalsRowFunction="sum" totalsRowDxfId="26"/>
-    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="25"/>
-    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="cardiopatía hipertensiva" totalsRowFunction="sum" totalsRowDxfId="24"/>
-    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="23"/>
-    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a repetición" totalsRowFunction="sum" totalsRowDxfId="22"/>
-    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="21"/>
-    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="20"/>
-    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="ulcera péptica" totalsRowFunction="sum" totalsRowDxfId="19"/>
-    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="fumador" totalsRowFunction="sum" totalsRowDxfId="18"/>
-    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="miastenia grave" totalsRowFunction="sum" totalsRowDxfId="17"/>
-    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="16"/>
-    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="15"/>
-    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name=" aneurisma de la aorta" totalsRowFunction="sum" totalsRowDxfId="14"/>
-    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="neumopatía crónica" totalsRowFunction="sum" totalsRowDxfId="13"/>
-    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="12"/>
-    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso perianal" totalsRowFunction="sum" totalsRowDxfId="11"/>
-    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="10"/>
-    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía diabética" totalsRowFunction="sum" totalsRowDxfId="9"/>
-    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="insuficiencia cortico suprarrenal" totalsRowFunction="sum" totalsRowDxfId="8"/>
-    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="7"/>
-    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" hipoacusia moderada" totalsRowDxfId="6"/>
-    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="retraso mental" totalsRowDxfId="5"/>
-    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="4"/>
-    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="3"/>
-    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="2"/>
-    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="33"/>
+    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="32"/>
+    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="31"/>
+    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="30"/>
+    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="29"/>
+    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name="Enfermedad Pulmonar Obstructiva Crónica" totalsRowFunction="sum" totalsRowDxfId="27"/>
+    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="26"/>
+    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="25"/>
+    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="24"/>
+    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a Repetición" totalsRowFunction="sum" totalsRowDxfId="23"/>
+    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="22"/>
+    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="21"/>
+    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="Ulcera Péptica" totalsRowFunction="sum" totalsRowDxfId="20"/>
+    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="Fumador" totalsRowFunction="sum" totalsRowDxfId="19"/>
+    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="Miastenia Grave" totalsRowFunction="sum" totalsRowDxfId="18"/>
+    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="17"/>
+    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="Dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="16"/>
+    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name="Aneurisma de la Aorta" totalsRowFunction="sum" totalsRowDxfId="15"/>
+    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="Neumopatía Crónica" totalsRowFunction="sum" totalsRowDxfId="14"/>
+    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="13"/>
+    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso Perianal" totalsRowFunction="sum" totalsRowDxfId="12"/>
+    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="11"/>
+    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía Diabética" totalsRowFunction="sum" totalsRowDxfId="10"/>
+    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="Insuficiencia Córtico Suprarrenal" totalsRowFunction="sum" totalsRowDxfId="9"/>
+    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="8"/>
+    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" Hipoacusia Moderada" totalsRowDxfId="7"/>
+    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="Retraso Mental" totalsRowDxfId="6"/>
+    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="5"/>
+    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="4"/>
+    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="3"/>
+    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="56" xr3:uid="{90CCF9AB-E14F-4250-BC9E-D3FDA39564ED}" name="Infecciones Respiratorias Frecuentes" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1003,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC68"/>
+  <dimension ref="A1:BD70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,53 +1033,58 @@
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="23" style="4" customWidth="1"/>
-    <col min="15" max="15" width="15" style="4" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="4" customWidth="1"/>
     <col min="19" max="19" width="14.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.85546875" customWidth="1"/>
-    <col min="23" max="23" width="33.5703125" customWidth="1"/>
-    <col min="24" max="24" width="22.140625" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
     <col min="25" max="25" width="16.42578125" customWidth="1"/>
-    <col min="26" max="26" width="26.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
     <col min="28" max="28" width="19.7109375" customWidth="1"/>
-    <col min="29" max="29" width="40.5703125" customWidth="1"/>
+    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.5703125" customWidth="1"/>
     <col min="31" max="31" width="12.7109375" customWidth="1"/>
-    <col min="32" max="32" width="24.5703125" customWidth="1"/>
-    <col min="33" max="33" width="21.140625" customWidth="1"/>
-    <col min="34" max="34" width="25" customWidth="1"/>
-    <col min="35" max="35" width="17.85546875" customWidth="1"/>
-    <col min="36" max="36" width="19.28515625" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" customWidth="1"/>
     <col min="38" max="38" width="10.7109375" customWidth="1"/>
-    <col min="39" max="39" width="17.140625" customWidth="1"/>
-    <col min="40" max="40" width="16.7109375" customWidth="1"/>
-    <col min="41" max="41" width="18.5703125" customWidth="1"/>
-    <col min="42" max="42" width="22.5703125" customWidth="1"/>
-    <col min="43" max="43" width="20.5703125" customWidth="1"/>
-    <col min="44" max="44" width="27.140625" customWidth="1"/>
-    <col min="45" max="45" width="18.140625" customWidth="1"/>
-    <col min="46" max="46" width="12.7109375" customWidth="1"/>
-    <col min="47" max="47" width="22" customWidth="1"/>
-    <col min="48" max="48" width="31.28515625" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" customWidth="1"/>
+    <col min="41" max="41" width="12" customWidth="1"/>
+    <col min="42" max="42" width="10.5703125" customWidth="1"/>
+    <col min="43" max="43" width="12.28515625" customWidth="1"/>
+    <col min="44" max="44" width="11" customWidth="1"/>
+    <col min="45" max="46" width="12.7109375" customWidth="1"/>
+    <col min="47" max="47" width="11.42578125" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" customWidth="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.140625" customWidth="1"/>
+    <col min="54" max="54" width="12" customWidth="1"/>
+    <col min="55" max="55" width="12.140625" customWidth="1"/>
+    <col min="56" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -1075,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1087,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>13</v>
@@ -1105,22 +1123,22 @@
         <v>14</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>15</v>
@@ -1129,106 +1147,109 @@
         <v>16</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="AB1" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AU1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
@@ -1242,7 +1263,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L2"/>
       <c r="Q2"/>
@@ -1251,7 +1272,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43916</v>
       </c>
@@ -1265,7 +1286,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
@@ -1280,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -1294,10 +1315,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -1315,7 +1336,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43918</v>
       </c>
@@ -1329,14 +1350,14 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -1384,7 +1405,7 @@
       <c r="AV5"/>
       <c r="AW5"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -1398,10 +1419,10 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -1428,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43920</v>
       </c>
@@ -1442,7 +1463,7 @@
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1466,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43923</v>
       </c>
@@ -1480,13 +1501,13 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L8"/>
       <c r="Q8"/>
@@ -1501,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43925</v>
       </c>
@@ -1513,14 +1534,14 @@
         <v>71</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1564,7 +1585,7 @@
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43926</v>
       </c>
@@ -1578,10 +1599,10 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -1593,7 +1614,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43927</v>
       </c>
@@ -1607,10 +1628,10 @@
         <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -1622,7 +1643,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43927</v>
       </c>
@@ -1636,14 +1657,14 @@
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1687,7 +1708,7 @@
       <c r="AV12"/>
       <c r="AW12"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43929</v>
       </c>
@@ -1701,13 +1722,13 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -1719,7 +1740,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43929</v>
       </c>
@@ -1733,13 +1754,13 @@
         <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -1756,7 +1777,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -1770,13 +1791,13 @@
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
@@ -1794,7 +1815,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43929</v>
       </c>
@@ -1808,10 +1829,10 @@
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -1837,7 +1858,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
@@ -1906,10 +1927,10 @@
         <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -1938,7 +1959,7 @@
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1973,14 +1994,14 @@
         <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -2040,13 +2061,13 @@
         <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2070,7 +2091,7 @@
         <v>83</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -2133,10 +2154,10 @@
         <v>66</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>11</v>
@@ -2174,7 +2195,7 @@
         <v>88</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -2212,7 +2233,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2275,7 +2296,7 @@
         <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -2316,10 +2337,10 @@
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -2348,7 +2369,7 @@
         <v>73</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
@@ -2421,11 +2442,11 @@
         <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -2496,13 +2517,13 @@
         <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I30" s="4">
         <v>1</v>
@@ -2539,7 +2560,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
@@ -2606,10 +2627,10 @@
         <v>76</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>11</v>
@@ -2643,11 +2664,11 @@
         <v>72</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>11</v>
@@ -2710,7 +2731,7 @@
         <v>44</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2775,11 +2796,11 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -2848,10 +2869,10 @@
         <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>11</v>
@@ -2889,7 +2910,7 @@
         <v>88</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>9</v>
@@ -2928,11 +2949,11 @@
         <v>72</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>11</v>
@@ -3001,13 +3022,13 @@
         <v>77</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -3041,10 +3062,10 @@
         <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
@@ -3081,13 +3102,13 @@
         <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L41"/>
       <c r="Q41"/>
@@ -3116,7 +3137,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
@@ -3185,11 +3206,11 @@
         <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -3254,11 +3275,11 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -3323,14 +3344,14 @@
         <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I45" s="4">
         <v>1</v>
@@ -3396,16 +3417,16 @@
         <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F46">
         <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L46"/>
       <c r="O46" s="4">
@@ -3431,16 +3452,16 @@
         <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F47">
         <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>
@@ -3469,7 +3490,7 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -3508,7 +3529,7 @@
         <v>84</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>12</v>
@@ -3552,7 +3573,7 @@
         <v>80</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>9</v>
@@ -3590,11 +3611,11 @@
         <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F51"/>
       <c r="G51" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>11</v>
@@ -3659,10 +3680,10 @@
         <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>11</v>
@@ -3693,7 +3714,7 @@
         <v>84</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>10</v>
@@ -3727,7 +3748,7 @@
         <v>77</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I54" s="10">
         <v>1</v>
@@ -3763,7 +3784,7 @@
         <v>73</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -3797,13 +3818,13 @@
         <v>53</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -3841,7 +3862,7 @@
         <v>69</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>9</v>
@@ -3885,13 +3906,13 @@
         <v>85</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F58" s="6">
         <v>10</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>8</v>
@@ -3935,13 +3956,13 @@
         <v>63</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -3975,10 +3996,10 @@
         <v>95</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>11</v>
@@ -4016,10 +4037,10 @@
         <v>77</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>11</v>
@@ -4061,7 +4082,7 @@
         <v>80</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>10</v>
@@ -4100,11 +4121,11 @@
         <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>11</v>
@@ -4173,11 +4194,11 @@
         <v>86</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>11</v>
@@ -4236,7 +4257,7 @@
       </c>
       <c r="BC64" s="6"/>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>43951</v>
       </c>
@@ -4250,10 +4271,10 @@
         <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>11</v>
@@ -4268,7 +4289,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>43952</v>
       </c>
@@ -4282,7 +4303,7 @@
         <v>59</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F66" s="6">
         <v>23</v>
@@ -4312,7 +4333,7 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
     </row>
-    <row r="67" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>43952</v>
       </c>
@@ -4326,13 +4347,13 @@
         <v>87</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I67" s="7">
         <v>1</v>
@@ -4358,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>43953</v>
       </c>
@@ -4372,10 +4393,10 @@
         <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -4387,6 +4408,78 @@
         <v>1</v>
       </c>
       <c r="BC68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>43954</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43945</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>79</v>
+      </c>
+      <c r="E69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="4">
+        <v>1</v>
+      </c>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="BC69" s="6"/>
+    </row>
+    <row r="70" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>43954</v>
+      </c>
+      <c r="B70" s="12">
+        <v>43948</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="8">
+        <v>82</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10">
+        <v>1</v>
+      </c>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="BD70" s="8">
         <v>1</v>
       </c>
     </row>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C994CB1E-78DA-4741-93DD-1DD33F9414C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11B3597-F063-4430-A275-FDD451231DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8715" windowWidth="28770" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="102">
   <si>
     <t>provincia</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>Absceso Perianal</t>
+  </si>
+  <si>
+    <t>Enfermedad Cerebrovascular</t>
+  </si>
+  <si>
+    <t>Neoplasia de Esófago</t>
+  </si>
+  <si>
+    <t>San Miguel del Padrón</t>
   </si>
 </sst>
 </file>
@@ -454,12 +463,18 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="69">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -686,68 +701,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BD70" headerRowDxfId="66">
-  <autoFilter ref="A1:BD70" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BF74" headerRowDxfId="68">
+  <autoFilter ref="A1:BF74" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
-  <tableColumns count="56">
-    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="65"/>
-    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="63"/>
+  <tableColumns count="58">
+    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="67"/>
+    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="65"/>
     <tableColumn id="3" xr3:uid="{17C6E5D9-6AC5-4F4B-AAD9-7DDD8D7C6756}" name="edad"/>
     <tableColumn id="4" xr3:uid="{56FD56BB-76B8-4EEB-A922-A7E5CFDA8389}" name="Nacionalidad"/>
     <tableColumn id="5" xr3:uid="{0254E852-FB09-49A4-ACA2-FB3969ACD460}" name="diasevolucion"/>
     <tableColumn id="6" xr3:uid="{339A6354-F056-4199-AC0B-20EC4DA08AA3}" name="municipio"/>
     <tableColumn id="7" xr3:uid="{180D6C9F-A10F-4C49-A8DD-31E3F2D4C1BC}" name="provincia"/>
-    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="33"/>
-    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="32"/>
-    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="30"/>
-    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="29"/>
-    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name="Enfermedad Pulmonar Obstructiva Crónica" totalsRowFunction="sum" totalsRowDxfId="27"/>
-    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="26"/>
-    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="25"/>
-    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="24"/>
-    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a Repetición" totalsRowFunction="sum" totalsRowDxfId="23"/>
-    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="22"/>
-    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="21"/>
-    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="Ulcera Péptica" totalsRowFunction="sum" totalsRowDxfId="20"/>
-    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="Fumador" totalsRowFunction="sum" totalsRowDxfId="19"/>
-    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="Miastenia Grave" totalsRowFunction="sum" totalsRowDxfId="18"/>
-    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="17"/>
-    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="Dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="16"/>
-    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name="Aneurisma de la Aorta" totalsRowFunction="sum" totalsRowDxfId="15"/>
-    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="Neumopatía Crónica" totalsRowFunction="sum" totalsRowDxfId="14"/>
-    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="13"/>
-    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso Perianal" totalsRowFunction="sum" totalsRowDxfId="12"/>
-    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="11"/>
-    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía Diabética" totalsRowFunction="sum" totalsRowDxfId="10"/>
-    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="Insuficiencia Córtico Suprarrenal" totalsRowFunction="sum" totalsRowDxfId="9"/>
-    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="8"/>
-    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" Hipoacusia Moderada" totalsRowDxfId="7"/>
-    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="Retraso Mental" totalsRowDxfId="6"/>
-    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="5"/>
-    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="4"/>
-    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="3"/>
-    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="56" xr3:uid="{90CCF9AB-E14F-4250-BC9E-D3FDA39564ED}" name="Infecciones Respiratorias Frecuentes" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="35"/>
+    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="34"/>
+    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="32"/>
+    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="31"/>
+    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="30"/>
+    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name="Enfermedad Pulmonar Obstructiva Crónica" totalsRowFunction="sum" totalsRowDxfId="29"/>
+    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="28"/>
+    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="27"/>
+    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="26"/>
+    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a Repetición" totalsRowFunction="sum" totalsRowDxfId="25"/>
+    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="24"/>
+    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="23"/>
+    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="Ulcera Péptica" totalsRowFunction="sum" totalsRowDxfId="22"/>
+    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="Fumador" totalsRowFunction="sum" totalsRowDxfId="21"/>
+    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="Miastenia Grave" totalsRowFunction="sum" totalsRowDxfId="20"/>
+    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="19"/>
+    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="Dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="18"/>
+    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name="Aneurisma de la Aorta" totalsRowFunction="sum" totalsRowDxfId="17"/>
+    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="Neumopatía Crónica" totalsRowFunction="sum" totalsRowDxfId="16"/>
+    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="15"/>
+    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso Perianal" totalsRowFunction="sum" totalsRowDxfId="14"/>
+    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="13"/>
+    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía Diabética" totalsRowFunction="sum" totalsRowDxfId="12"/>
+    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="Insuficiencia Córtico Suprarrenal" totalsRowFunction="sum" totalsRowDxfId="11"/>
+    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="10"/>
+    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" Hipoacusia Moderada" totalsRowDxfId="9"/>
+    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="Retraso Mental" totalsRowDxfId="8"/>
+    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="7"/>
+    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="6"/>
+    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="5"/>
+    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="56" xr3:uid="{90CCF9AB-E14F-4250-BC9E-D3FDA39564ED}" name="Infecciones Respiratorias Frecuentes" totalsRowDxfId="2"/>
+    <tableColumn id="57" xr3:uid="{D4DF81D0-996B-4C9C-A844-FE9CCFC1BD35}" name="Enfermedad Cerebrovascular" totalsRowDxfId="1"/>
+    <tableColumn id="58" xr3:uid="{4187083A-C91C-4A6B-BF25-D9A91D352DCD}" name="Neoplasia de Esófago" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1016,11 +1033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD70"/>
+  <dimension ref="A1:BF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70:XFD70"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1096,7 @@
     <col min="56" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1248,8 +1265,14 @@
       <c r="BD1" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
@@ -1272,7 +1295,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43916</v>
       </c>
@@ -1301,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -1336,7 +1359,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43918</v>
       </c>
@@ -1405,7 +1428,7 @@
       <c r="AV5"/>
       <c r="AW5"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -1449,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43920</v>
       </c>
@@ -1487,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43923</v>
       </c>
@@ -1522,11 +1545,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43925</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="12">
+        <v>43914</v>
+      </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1585,7 +1610,7 @@
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43926</v>
       </c>
@@ -1614,7 +1639,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43927</v>
       </c>
@@ -1643,7 +1668,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43927</v>
       </c>
@@ -1708,7 +1733,7 @@
       <c r="AV12"/>
       <c r="AW12"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43929</v>
       </c>
@@ -1740,7 +1765,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43929</v>
       </c>
@@ -1777,7 +1802,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -1815,7 +1840,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43929</v>
       </c>
@@ -2083,7 +2108,10 @@
       <c r="A22" s="9">
         <v>43933</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="12">
+        <f>Tabla1[[#This Row],[Fecha de fallecimiento]]-Tabla1[[#This Row],[diasevolucion]]</f>
+        <v>43914</v>
+      </c>
       <c r="C22" s="9" t="s">
         <v>6</v>
       </c>
@@ -2093,9 +2121,13 @@
       <c r="E22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>19</v>
+      </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2156,6 +2188,9 @@
       <c r="E23" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="F23" s="6">
+        <v>14</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>69</v>
       </c>
@@ -2225,7 +2260,9 @@
       <c r="A25" s="9">
         <v>43935</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="12">
+        <v>43924</v>
+      </c>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
@@ -2235,9 +2272,15 @@
       <c r="E25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="8">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I25" s="10">
         <v>1</v>
       </c>
@@ -2719,68 +2762,49 @@
       <c r="AV33" s="8"/>
       <c r="AW33" s="8"/>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+    <row r="34" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>43938</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="13">
+        <f>Tabla1[[#This Row],[Fecha de fallecimiento]]-Tabla1[[#This Row],[diasevolucion]]</f>
+        <v>43920</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <v>44</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="8"/>
-      <c r="AO34" s="8"/>
-      <c r="AP34" s="8"/>
-      <c r="AQ34" s="8"/>
-      <c r="AR34" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS34" s="8">
-        <v>1</v>
-      </c>
-      <c r="AT34" s="8"/>
-      <c r="AU34" s="8"/>
-      <c r="AV34" s="8"/>
-      <c r="AW34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="6">
+        <v>18</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="AR34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2937,76 +2961,49 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+    <row r="38" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>43940</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="13">
+        <v>43925</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <v>72</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8" t="s">
+      <c r="E38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="10">
-        <v>1</v>
-      </c>
-      <c r="J38" s="10">
-        <v>1</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="8"/>
-      <c r="AN38" s="8"/>
-      <c r="AO38" s="8"/>
-      <c r="AP38" s="8"/>
-      <c r="AQ38" s="8"/>
-      <c r="AR38" s="8"/>
-      <c r="AS38" s="8"/>
-      <c r="AT38" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU38" s="8">
-        <v>1</v>
-      </c>
-      <c r="AV38" s="8"/>
-      <c r="AW38" s="8"/>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="AT38" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
@@ -4257,7 +4254,7 @@
       </c>
       <c r="BC64" s="6"/>
     </row>
-    <row r="65" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>43951</v>
       </c>
@@ -4289,7 +4286,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>43952</v>
       </c>
@@ -4333,7 +4330,7 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
     </row>
-    <row r="67" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>43952</v>
       </c>
@@ -4379,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>43953</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>43954</v>
       </c>
@@ -4441,47 +4438,227 @@
       <c r="W69" s="4"/>
       <c r="BC69" s="6"/>
     </row>
-    <row r="70" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+    <row r="70" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
         <v>43954</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="13">
         <v>43948</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="6">
         <v>82</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G70" s="8" t="s">
+      <c r="E70" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10">
-        <v>1</v>
-      </c>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="BD70" s="8">
-        <v>1</v>
-      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7">
+        <v>1</v>
+      </c>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="BD70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>43957</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43955</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>83</v>
+      </c>
+      <c r="E71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1</v>
+      </c>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="AZ71">
+        <v>1</v>
+      </c>
+      <c r="BC71" s="6"/>
+    </row>
+    <row r="72" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>43957</v>
+      </c>
+      <c r="B72" s="13">
+        <v>43957</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="6">
+        <v>79</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7">
+        <v>1</v>
+      </c>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="AZ72" s="6">
+        <v>1</v>
+      </c>
+      <c r="BE72" s="6">
+        <v>1</v>
+      </c>
+      <c r="BF72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>43957</v>
+      </c>
+      <c r="B73" s="13">
+        <v>43957</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="6">
+        <v>94</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="6">
+        <v>4</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7">
+        <v>1</v>
+      </c>
+      <c r="P73" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="AZ73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>43957</v>
+      </c>
+      <c r="B74" s="13">
+        <v>43955</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="6">
+        <v>92</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="6">
+        <v>5</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7">
+        <v>1</v>
+      </c>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11B3597-F063-4430-A275-FDD451231DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14D97CA-29AC-4492-9DEC-F3DA0C380223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8715" windowWidth="28770" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="102">
   <si>
     <t>provincia</t>
   </si>
@@ -701,8 +701,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BF74" headerRowDxfId="68">
-  <autoFilter ref="A1:BF74" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BF75" headerRowDxfId="68">
+  <autoFilter ref="A1:BF75" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1033,11 +1033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF74"/>
+  <dimension ref="A1:BF75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73:XFD74"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,6 +4660,55 @@
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
     </row>
+    <row r="75" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>43958</v>
+      </c>
+      <c r="B75" s="13">
+        <v>43953</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="6">
+        <v>77</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="6">
+        <v>12</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="7">
+        <v>1</v>
+      </c>
+      <c r="J75" s="7">
+        <v>1</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7">
+        <v>1</v>
+      </c>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="BE75" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14D97CA-29AC-4492-9DEC-F3DA0C380223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D2D9F5-E587-4E71-84F7-C1440F91DF2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8715" windowWidth="28770" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="102">
   <si>
     <t>provincia</t>
   </si>
@@ -381,7 +380,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -437,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -462,7 +461,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -670,13 +671,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -701,8 +702,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BF75" headerRowDxfId="68">
-  <autoFilter ref="A1:BF75" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BF78" headerRowDxfId="68">
+  <autoFilter ref="A1:BF78" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1033,11 +1034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF75"/>
+  <dimension ref="A1:BF78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75:XFD75"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4709,6 +4710,143 @@
         <v>1</v>
       </c>
     </row>
+    <row r="76" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <v>43960</v>
+      </c>
+      <c r="B76" s="15">
+        <v>43952</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="6">
+        <v>53</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7">
+        <v>1</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA76" s="6">
+        <v>1</v>
+      </c>
+      <c r="BC76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>43960</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="8">
+        <v>59</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="10">
+        <v>1</v>
+      </c>
+      <c r="J77" s="10">
+        <v>1</v>
+      </c>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10">
+        <v>1</v>
+      </c>
+      <c r="S77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="BC77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>43960</v>
+      </c>
+      <c r="B78" s="12">
+        <v>43959</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="8">
+        <v>64</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10">
+        <v>1</v>
+      </c>
+      <c r="K78" s="10">
+        <v>1</v>
+      </c>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="AD78" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE78" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D2D9F5-E587-4E71-84F7-C1440F91DF2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D864164-25BB-4160-9BCA-FAFA1738B7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8715" windowWidth="28770" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="103">
   <si>
     <t>provincia</t>
   </si>
@@ -373,6 +374,9 @@
   </si>
   <si>
     <t>San Miguel del Padrón</t>
+  </si>
+  <si>
+    <t>Neoplacia de Pulmón</t>
   </si>
 </sst>
 </file>
@@ -380,7 +384,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -436,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -463,13 +467,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="70">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -671,13 +679,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -702,70 +710,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BF78" headerRowDxfId="68">
-  <autoFilter ref="A1:BF78" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG79" headerRowDxfId="69">
+  <autoFilter ref="A1:BG79" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
-  <tableColumns count="58">
-    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="67"/>
-    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="65"/>
+  <tableColumns count="59">
+    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="68"/>
+    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="66"/>
     <tableColumn id="3" xr3:uid="{17C6E5D9-6AC5-4F4B-AAD9-7DDD8D7C6756}" name="edad"/>
     <tableColumn id="4" xr3:uid="{56FD56BB-76B8-4EEB-A922-A7E5CFDA8389}" name="Nacionalidad"/>
     <tableColumn id="5" xr3:uid="{0254E852-FB09-49A4-ACA2-FB3969ACD460}" name="diasevolucion"/>
     <tableColumn id="6" xr3:uid="{339A6354-F056-4199-AC0B-20EC4DA08AA3}" name="municipio"/>
     <tableColumn id="7" xr3:uid="{180D6C9F-A10F-4C49-A8DD-31E3F2D4C1BC}" name="provincia"/>
-    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="35"/>
-    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="34"/>
-    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="32"/>
-    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="31"/>
-    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="30"/>
-    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name="Enfermedad Pulmonar Obstructiva Crónica" totalsRowFunction="sum" totalsRowDxfId="29"/>
-    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="28"/>
-    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="27"/>
-    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="26"/>
-    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a Repetición" totalsRowFunction="sum" totalsRowDxfId="25"/>
-    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="24"/>
-    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="23"/>
-    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="Ulcera Péptica" totalsRowFunction="sum" totalsRowDxfId="22"/>
-    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="Fumador" totalsRowFunction="sum" totalsRowDxfId="21"/>
-    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="Miastenia Grave" totalsRowFunction="sum" totalsRowDxfId="20"/>
-    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="19"/>
-    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="Dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="18"/>
-    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name="Aneurisma de la Aorta" totalsRowFunction="sum" totalsRowDxfId="17"/>
-    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="Neumopatía Crónica" totalsRowFunction="sum" totalsRowDxfId="16"/>
-    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="15"/>
-    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso Perianal" totalsRowFunction="sum" totalsRowDxfId="14"/>
-    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="13"/>
-    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía Diabética" totalsRowFunction="sum" totalsRowDxfId="12"/>
-    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="Insuficiencia Córtico Suprarrenal" totalsRowFunction="sum" totalsRowDxfId="11"/>
-    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="10"/>
-    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" Hipoacusia Moderada" totalsRowDxfId="9"/>
-    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="Retraso Mental" totalsRowDxfId="8"/>
-    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="7"/>
-    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="6"/>
-    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="5"/>
-    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="56" xr3:uid="{90CCF9AB-E14F-4250-BC9E-D3FDA39564ED}" name="Infecciones Respiratorias Frecuentes" totalsRowDxfId="2"/>
-    <tableColumn id="57" xr3:uid="{D4DF81D0-996B-4C9C-A844-FE9CCFC1BD35}" name="Enfermedad Cerebrovascular" totalsRowDxfId="1"/>
-    <tableColumn id="58" xr3:uid="{4187083A-C91C-4A6B-BF25-D9A91D352DCD}" name="Neoplasia de Esófago" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="35"/>
+    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="33"/>
+    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="32"/>
+    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="31"/>
+    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name="Enfermedad Pulmonar Obstructiva Crónica" totalsRowFunction="sum" totalsRowDxfId="30"/>
+    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="29"/>
+    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="28"/>
+    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="27"/>
+    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a Repetición" totalsRowFunction="sum" totalsRowDxfId="26"/>
+    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="25"/>
+    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="24"/>
+    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="Ulcera Péptica" totalsRowFunction="sum" totalsRowDxfId="23"/>
+    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="Fumador" totalsRowFunction="sum" totalsRowDxfId="22"/>
+    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="Miastenia Grave" totalsRowFunction="sum" totalsRowDxfId="21"/>
+    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="20"/>
+    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="Dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="19"/>
+    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name="Aneurisma de la Aorta" totalsRowFunction="sum" totalsRowDxfId="18"/>
+    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="Neumopatía Crónica" totalsRowFunction="sum" totalsRowDxfId="17"/>
+    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="16"/>
+    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso Perianal" totalsRowFunction="sum" totalsRowDxfId="15"/>
+    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="14"/>
+    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía Diabética" totalsRowFunction="sum" totalsRowDxfId="13"/>
+    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="Insuficiencia Córtico Suprarrenal" totalsRowFunction="sum" totalsRowDxfId="12"/>
+    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="11"/>
+    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" Hipoacusia Moderada" totalsRowDxfId="10"/>
+    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="Retraso Mental" totalsRowDxfId="9"/>
+    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="8"/>
+    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="7"/>
+    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="6"/>
+    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="56" xr3:uid="{90CCF9AB-E14F-4250-BC9E-D3FDA39564ED}" name="Infecciones Respiratorias Frecuentes" totalsRowDxfId="3"/>
+    <tableColumn id="57" xr3:uid="{D4DF81D0-996B-4C9C-A844-FE9CCFC1BD35}" name="Enfermedad Cerebrovascular" totalsRowDxfId="2"/>
+    <tableColumn id="58" xr3:uid="{4187083A-C91C-4A6B-BF25-D9A91D352DCD}" name="Neoplasia de Esófago" totalsRowDxfId="1"/>
+    <tableColumn id="59" xr3:uid="{7F4A65B7-4A7B-46DA-BD9B-20BB464D48D1}" name="Neoplacia de Pulmón" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1034,11 +1043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF78"/>
+  <dimension ref="A1:BG79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1106,7 @@
     <col min="56" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1272,8 +1281,11 @@
       <c r="BF1" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
@@ -1296,7 +1308,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43916</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -1360,7 +1372,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43918</v>
       </c>
@@ -1429,7 +1441,7 @@
       <c r="AV5"/>
       <c r="AW5"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43920</v>
       </c>
@@ -1511,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43923</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43925</v>
       </c>
@@ -1611,7 +1623,7 @@
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43926</v>
       </c>
@@ -1640,7 +1652,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43927</v>
       </c>
@@ -1669,7 +1681,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43927</v>
       </c>
@@ -1734,7 +1746,7 @@
       <c r="AV12"/>
       <c r="AW12"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43929</v>
       </c>
@@ -1766,7 +1778,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43929</v>
       </c>
@@ -1803,7 +1815,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -1841,7 +1853,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43929</v>
       </c>
@@ -4255,7 +4267,7 @@
       </c>
       <c r="BC64" s="6"/>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>43951</v>
       </c>
@@ -4287,7 +4299,7 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>43952</v>
       </c>
@@ -4331,7 +4343,7 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
     </row>
-    <row r="67" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>43952</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>43953</v>
       </c>
@@ -4409,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>43954</v>
       </c>
@@ -4439,7 +4451,7 @@
       <c r="W69" s="4"/>
       <c r="BC69" s="6"/>
     </row>
-    <row r="70" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>43954</v>
       </c>
@@ -4481,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>43957</v>
       </c>
@@ -4520,7 +4532,7 @@
       </c>
       <c r="BC71" s="6"/>
     </row>
-    <row r="72" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>43957</v>
       </c>
@@ -4570,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>43957</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>43957</v>
       </c>
@@ -4661,7 +4673,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
     </row>
-    <row r="75" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>43958</v>
       </c>
@@ -4710,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>43960</v>
       </c>
@@ -4757,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>43960</v>
       </c>
@@ -4800,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>43960</v>
       </c>
@@ -4847,6 +4859,49 @@
         <v>1</v>
       </c>
     </row>
+    <row r="79" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
+        <v>43962</v>
+      </c>
+      <c r="B79" s="17">
+        <v>43962</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="6">
+        <v>58</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="6">
+        <v>10</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="BG79" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D864164-25BB-4160-9BCA-FAFA1738B7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32546BB-402F-4254-B8F4-9A915C0F7899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8715" windowWidth="28770" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10155" windowWidth="28770" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
   <si>
     <t>provincia</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>Neoplacia de Pulmón</t>
+  </si>
+  <si>
+    <t>Bauta</t>
+  </si>
+  <si>
+    <t>Artemisa</t>
   </si>
 </sst>
 </file>
@@ -710,8 +716,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG79" headerRowDxfId="69">
-  <autoFilter ref="A1:BG79" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG80" headerRowDxfId="69">
+  <autoFilter ref="A1:BG80" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1043,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG79"/>
+  <dimension ref="A1:BG80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4902,6 +4908,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="80" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
+        <v>43963</v>
+      </c>
+      <c r="B80" s="17">
+        <v>43960</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="6">
+        <v>83</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I80" s="7">
+        <v>1</v>
+      </c>
+      <c r="J80" s="7">
+        <v>1</v>
+      </c>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="BE80" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32546BB-402F-4254-B8F4-9A915C0F7899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AE4A8E-41A2-4270-9152-A80327857963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10155" windowWidth="28770" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="10125" windowWidth="28770" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="105">
   <si>
     <t>provincia</t>
   </si>
@@ -716,8 +716,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG80" headerRowDxfId="69">
-  <autoFilter ref="A1:BG80" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG81" headerRowDxfId="69">
+  <autoFilter ref="A1:BG81" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1049,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG80"/>
+  <dimension ref="A1:BG81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80:XFD80"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4952,6 +4952,55 @@
         <v>1</v>
       </c>
     </row>
+    <row r="81" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
+        <v>43971</v>
+      </c>
+      <c r="B81" s="17">
+        <v>43951</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="6">
+        <v>78</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="7">
+        <v>1</v>
+      </c>
+      <c r="J81" s="7">
+        <v>1</v>
+      </c>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="6">
+        <v>1</v>
+      </c>
+      <c r="BG81" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AE4A8E-41A2-4270-9152-A80327857963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2701568-6C44-4803-B1A5-5717E0BBA2E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="10125" windowWidth="28770" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6120" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="105">
   <si>
     <t>provincia</t>
   </si>
@@ -390,7 +389,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -446,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -475,6 +474,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -685,13 +685,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -716,8 +716,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG81" headerRowDxfId="69">
-  <autoFilter ref="A1:BG81" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG82" headerRowDxfId="69">
+  <autoFilter ref="A1:BG82" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1049,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG81"/>
+  <dimension ref="A1:BG82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD81"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5001,6 +5001,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A82" s="19">
+        <v>43972</v>
+      </c>
+      <c r="B82" s="14">
+        <v>43940</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>56</v>
+      </c>
+      <c r="E82" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1</v>
+      </c>
+      <c r="L82" s="4">
+        <v>1</v>
+      </c>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="BC82" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2701568-6C44-4803-B1A5-5717E0BBA2E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D772E56B-6637-4621-B4D7-4B27994DFC1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6120" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="106">
   <si>
     <t>provincia</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>Artemisa</t>
+  </si>
+  <si>
+    <t>Insuficiencia Venosa Periférica</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -716,71 +730,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG82" headerRowDxfId="69">
-  <autoFilter ref="A1:BG82" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BH83" headerRowDxfId="71">
+  <autoFilter ref="A1:BH83" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BC67">
     <sortCondition ref="A1:A67"/>
   </sortState>
-  <tableColumns count="59">
-    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="68"/>
-    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="66"/>
+  <tableColumns count="60">
+    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="70"/>
+    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="68"/>
     <tableColumn id="3" xr3:uid="{17C6E5D9-6AC5-4F4B-AAD9-7DDD8D7C6756}" name="edad"/>
     <tableColumn id="4" xr3:uid="{56FD56BB-76B8-4EEB-A922-A7E5CFDA8389}" name="Nacionalidad"/>
     <tableColumn id="5" xr3:uid="{0254E852-FB09-49A4-ACA2-FB3969ACD460}" name="diasevolucion"/>
     <tableColumn id="6" xr3:uid="{339A6354-F056-4199-AC0B-20EC4DA08AA3}" name="municipio"/>
     <tableColumn id="7" xr3:uid="{180D6C9F-A10F-4C49-A8DD-31E3F2D4C1BC}" name="provincia"/>
-    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="35"/>
-    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="32"/>
-    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="31"/>
-    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name="Enfermedad Pulmonar Obstructiva Crónica" totalsRowFunction="sum" totalsRowDxfId="30"/>
-    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="29"/>
-    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="28"/>
-    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="27"/>
-    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a Repetición" totalsRowFunction="sum" totalsRowDxfId="26"/>
-    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="25"/>
-    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="24"/>
-    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="Ulcera Péptica" totalsRowFunction="sum" totalsRowDxfId="23"/>
-    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="Fumador" totalsRowFunction="sum" totalsRowDxfId="22"/>
-    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="Miastenia Grave" totalsRowFunction="sum" totalsRowDxfId="21"/>
-    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="20"/>
-    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="Dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="19"/>
-    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name="Aneurisma de la Aorta" totalsRowFunction="sum" totalsRowDxfId="18"/>
-    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="Neumopatía Crónica" totalsRowFunction="sum" totalsRowDxfId="17"/>
-    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="16"/>
-    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso Perianal" totalsRowFunction="sum" totalsRowDxfId="15"/>
-    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="14"/>
-    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía Diabética" totalsRowFunction="sum" totalsRowDxfId="13"/>
-    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="Insuficiencia Córtico Suprarrenal" totalsRowFunction="sum" totalsRowDxfId="12"/>
-    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="11"/>
-    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" Hipoacusia Moderada" totalsRowDxfId="10"/>
-    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="Retraso Mental" totalsRowDxfId="9"/>
-    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="8"/>
-    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="7"/>
-    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="6"/>
-    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="56" xr3:uid="{90CCF9AB-E14F-4250-BC9E-D3FDA39564ED}" name="Infecciones Respiratorias Frecuentes" totalsRowDxfId="3"/>
-    <tableColumn id="57" xr3:uid="{D4DF81D0-996B-4C9C-A844-FE9CCFC1BD35}" name="Enfermedad Cerebrovascular" totalsRowDxfId="2"/>
-    <tableColumn id="58" xr3:uid="{4187083A-C91C-4A6B-BF25-D9A91D352DCD}" name="Neoplasia de Esófago" totalsRowDxfId="1"/>
-    <tableColumn id="59" xr3:uid="{7F4A65B7-4A7B-46DA-BD9B-20BB464D48D1}" name="Neoplacia de Pulmón" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="38"/>
+    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="35"/>
+    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="34"/>
+    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="33"/>
+    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name="Enfermedad Pulmonar Obstructiva Crónica" totalsRowFunction="sum" totalsRowDxfId="32"/>
+    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="31"/>
+    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="30"/>
+    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="29"/>
+    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a Repetición" totalsRowFunction="sum" totalsRowDxfId="28"/>
+    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="27"/>
+    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="26"/>
+    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="Ulcera Péptica" totalsRowFunction="sum" totalsRowDxfId="25"/>
+    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="Fumador" totalsRowFunction="sum" totalsRowDxfId="24"/>
+    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="Miastenia Grave" totalsRowFunction="sum" totalsRowDxfId="23"/>
+    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="22"/>
+    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="Dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="21"/>
+    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name="Aneurisma de la Aorta" totalsRowFunction="sum" totalsRowDxfId="20"/>
+    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="Neumopatía Crónica" totalsRowFunction="sum" totalsRowDxfId="19"/>
+    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="18"/>
+    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso Perianal" totalsRowFunction="sum" totalsRowDxfId="17"/>
+    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="16"/>
+    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía Diabética" totalsRowFunction="sum" totalsRowDxfId="15"/>
+    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="Insuficiencia Córtico Suprarrenal" totalsRowFunction="sum" totalsRowDxfId="14"/>
+    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="13"/>
+    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" Hipoacusia Moderada" totalsRowDxfId="12"/>
+    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="Retraso Mental" totalsRowDxfId="11"/>
+    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="10"/>
+    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="9"/>
+    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="8"/>
+    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="56" xr3:uid="{90CCF9AB-E14F-4250-BC9E-D3FDA39564ED}" name="Infecciones Respiratorias Frecuentes" totalsRowDxfId="5"/>
+    <tableColumn id="57" xr3:uid="{D4DF81D0-996B-4C9C-A844-FE9CCFC1BD35}" name="Enfermedad Cerebrovascular" totalsRowDxfId="4"/>
+    <tableColumn id="58" xr3:uid="{4187083A-C91C-4A6B-BF25-D9A91D352DCD}" name="Neoplasia de Esófago" totalsRowDxfId="3"/>
+    <tableColumn id="59" xr3:uid="{7F4A65B7-4A7B-46DA-BD9B-20BB464D48D1}" name="Neoplacia de Pulmón" totalsRowDxfId="2"/>
+    <tableColumn id="60" xr3:uid="{31E5E17C-23F2-4B9C-8CDF-A4AD467ACA51}" name="Insuficiencia Venosa Periférica" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1049,11 +1064,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG82"/>
+  <dimension ref="A1:BH83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1127,7 @@
     <col min="56" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1290,8 +1305,11 @@
       <c r="BG1" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
@@ -1314,7 +1332,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43916</v>
       </c>
@@ -1343,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -1378,7 +1396,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43918</v>
       </c>
@@ -1447,7 +1465,7 @@
       <c r="AV5"/>
       <c r="AW5"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -1491,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43920</v>
       </c>
@@ -1529,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43923</v>
       </c>
@@ -1564,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43925</v>
       </c>
@@ -1629,7 +1647,7 @@
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43926</v>
       </c>
@@ -1658,7 +1676,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43927</v>
       </c>
@@ -1687,7 +1705,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43927</v>
       </c>
@@ -1752,7 +1770,7 @@
       <c r="AV12"/>
       <c r="AW12"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43929</v>
       </c>
@@ -1784,7 +1802,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43929</v>
       </c>
@@ -1821,7 +1839,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -1859,7 +1877,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43929</v>
       </c>
@@ -4952,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>43971</v>
       </c>
@@ -5001,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>43972</v>
       </c>
@@ -5036,6 +5054,36 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="BC82" s="6"/>
+    </row>
+    <row r="83" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A83" s="19">
+        <v>43974</v>
+      </c>
+      <c r="B83" s="14">
+        <v>43957</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>85</v>
+      </c>
+      <c r="E83" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="BC83" s="6"/>
+      <c r="BH83">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D772E56B-6637-4621-B4D7-4B27994DFC1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3040E5-1A84-4C91-82D7-91DD61F7137E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6120" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AS$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AR$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="105">
   <si>
     <t>provincia</t>
   </si>
@@ -340,9 +341,6 @@
   </si>
   <si>
     <t>Cardiopatía Hipertensiva</t>
-  </si>
-  <si>
-    <t>Enfermedad Pulmonar Obstructiva Crónica</t>
   </si>
   <si>
     <t xml:space="preserve">Glaucoma </t>
@@ -391,9 +389,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,12 +473,15 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="71">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -508,9 +506,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -696,16 +691,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -730,42 +722,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BH83" headerRowDxfId="71">
-  <autoFilter ref="A1:BH83" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
-  <sortState ref="A2:BC67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG83" headerRowDxfId="70">
+  <autoFilter ref="A1:BG83" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+  <sortState ref="A2:BB67">
     <sortCondition ref="A1:A67"/>
   </sortState>
-  <tableColumns count="60">
-    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="70"/>
-    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="68"/>
+  <tableColumns count="59">
+    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="69"/>
+    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="67"/>
     <tableColumn id="3" xr3:uid="{17C6E5D9-6AC5-4F4B-AAD9-7DDD8D7C6756}" name="edad"/>
     <tableColumn id="4" xr3:uid="{56FD56BB-76B8-4EEB-A922-A7E5CFDA8389}" name="Nacionalidad"/>
     <tableColumn id="5" xr3:uid="{0254E852-FB09-49A4-ACA2-FB3969ACD460}" name="diasevolucion"/>
     <tableColumn id="6" xr3:uid="{339A6354-F056-4199-AC0B-20EC4DA08AA3}" name="municipio"/>
     <tableColumn id="7" xr3:uid="{180D6C9F-A10F-4C49-A8DD-31E3F2D4C1BC}" name="provincia"/>
-    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="38"/>
-    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="37"/>
-    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="36"/>
-    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="35"/>
-    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="34"/>
-    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="33"/>
-    <tableColumn id="28" xr3:uid="{40438BF4-418D-45CE-9468-3AB1C7A381DA}" name="Enfermedad Pulmonar Obstructiva Crónica" totalsRowFunction="sum" totalsRowDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="34"/>
+    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="33"/>
+    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="32"/>
     <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="31"/>
     <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="30"/>
     <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="29"/>
@@ -795,7 +786,7 @@
     <tableColumn id="57" xr3:uid="{D4DF81D0-996B-4C9C-A844-FE9CCFC1BD35}" name="Enfermedad Cerebrovascular" totalsRowDxfId="4"/>
     <tableColumn id="58" xr3:uid="{4187083A-C91C-4A6B-BF25-D9A91D352DCD}" name="Neoplasia de Esófago" totalsRowDxfId="3"/>
     <tableColumn id="59" xr3:uid="{7F4A65B7-4A7B-46DA-BD9B-20BB464D48D1}" name="Neoplacia de Pulmón" totalsRowDxfId="2"/>
-    <tableColumn id="60" xr3:uid="{31E5E17C-23F2-4B9C-8CDF-A4AD467ACA51}" name="Insuficiencia Venosa Periférica" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="60" xr3:uid="{31E5E17C-23F2-4B9C-8CDF-A4AD467ACA51}" name="Insuficiencia Venosa Periférica" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,11 +1055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH83"/>
+  <dimension ref="A1:BG83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,48 +1077,47 @@
     <col min="12" max="12" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" customWidth="1"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="19.7109375" customWidth="1"/>
-    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" customWidth="1"/>
-    <col min="32" max="32" width="18.85546875" customWidth="1"/>
-    <col min="33" max="33" width="12.140625" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" customWidth="1"/>
-    <col min="41" max="41" width="12" customWidth="1"/>
-    <col min="42" max="42" width="10.5703125" customWidth="1"/>
-    <col min="43" max="43" width="12.28515625" customWidth="1"/>
-    <col min="44" max="44" width="11" customWidth="1"/>
-    <col min="45" max="46" width="12.7109375" customWidth="1"/>
-    <col min="47" max="47" width="11.42578125" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" customWidth="1"/>
-    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.140625" customWidth="1"/>
-    <col min="54" max="54" width="12" customWidth="1"/>
-    <col min="55" max="55" width="12.140625" customWidth="1"/>
-    <col min="56" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="4" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" customWidth="1"/>
+    <col min="39" max="39" width="10.28515625" customWidth="1"/>
+    <col min="40" max="40" width="12" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" customWidth="1"/>
+    <col min="42" max="42" width="12.28515625" customWidth="1"/>
+    <col min="43" max="43" width="11" customWidth="1"/>
+    <col min="44" max="45" width="12.7109375" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" customWidth="1"/>
+    <col min="47" max="47" width="12.42578125" customWidth="1"/>
+    <col min="49" max="49" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.140625" customWidth="1"/>
+    <col min="53" max="53" width="12" customWidth="1"/>
+    <col min="54" max="54" width="12.140625" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>33</v>
@@ -1174,13 +1164,13 @@
         <v>66</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>27</v>
@@ -1210,106 +1200,103 @@
         <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="BE1" s="2" t="s">
         <v>99</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
@@ -1327,12 +1314,11 @@
       </c>
       <c r="L2"/>
       <c r="Q2"/>
-      <c r="S2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43916</v>
       </c>
@@ -1353,15 +1339,14 @@
       </c>
       <c r="L3"/>
       <c r="Q3"/>
-      <c r="S3"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AP3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -1391,12 +1376,11 @@
       </c>
       <c r="L4"/>
       <c r="Q4"/>
-      <c r="S4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43918</v>
       </c>
@@ -1463,9 +1447,8 @@
       <c r="AT5"/>
       <c r="AU5"/>
       <c r="AV5"/>
-      <c r="AW5"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -1498,18 +1481,17 @@
       </c>
       <c r="L6"/>
       <c r="Q6"/>
-      <c r="S6"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
+      <c r="AM6">
+        <v>1</v>
+      </c>
       <c r="AN6">
         <v>1</v>
       </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43920</v>
       </c>
@@ -1539,15 +1521,14 @@
         <v>1</v>
       </c>
       <c r="Q7"/>
-      <c r="S7"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AO7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43923</v>
       </c>
@@ -1571,18 +1552,17 @@
       </c>
       <c r="L8"/>
       <c r="Q8"/>
-      <c r="S8"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
+      <c r="AK8">
+        <v>1</v>
+      </c>
       <c r="AL8">
         <v>1</v>
       </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43925</v>
       </c>
@@ -1645,9 +1625,8 @@
       <c r="AT9" s="8"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43926</v>
       </c>
@@ -1671,12 +1650,11 @@
       </c>
       <c r="L10"/>
       <c r="Q10"/>
-      <c r="S10"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43927</v>
       </c>
@@ -1700,12 +1678,11 @@
       </c>
       <c r="L11"/>
       <c r="Q11"/>
-      <c r="S11"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43927</v>
       </c>
@@ -1768,9 +1745,8 @@
       <c r="AT12"/>
       <c r="AU12"/>
       <c r="AV12"/>
-      <c r="AW12"/>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43929</v>
       </c>
@@ -1797,12 +1773,11 @@
       </c>
       <c r="L13"/>
       <c r="Q13"/>
-      <c r="S13"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43929</v>
       </c>
@@ -1834,12 +1809,11 @@
       <c r="Q14">
         <v>1</v>
       </c>
-      <c r="S14"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -1872,12 +1846,11 @@
       <c r="R15" s="4">
         <v>1</v>
       </c>
-      <c r="S15"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43929</v>
       </c>
@@ -1901,12 +1874,11 @@
       </c>
       <c r="L16"/>
       <c r="Q16"/>
-      <c r="S16"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43931</v>
       </c>
@@ -1969,13 +1941,12 @@
       <c r="AP17"/>
       <c r="AQ17"/>
       <c r="AR17"/>
-      <c r="AS17"/>
+      <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="6"/>
       <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43932</v>
       </c>
@@ -2002,12 +1973,11 @@
       </c>
       <c r="L18"/>
       <c r="Q18"/>
-      <c r="S18"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43932</v>
       </c>
@@ -2034,15 +2004,14 @@
         <v>1</v>
       </c>
       <c r="Q19"/>
-      <c r="S19"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="AK19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43933</v>
       </c>
@@ -2107,9 +2076,8 @@
       <c r="AT20"/>
       <c r="AU20"/>
       <c r="AV20"/>
-      <c r="AW20"/>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43933</v>
       </c>
@@ -2136,12 +2104,11 @@
       </c>
       <c r="L21"/>
       <c r="Q21"/>
-      <c r="S21"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>43933</v>
       </c>
@@ -2207,9 +2174,8 @@
       <c r="AT22" s="8"/>
       <c r="AU22" s="8"/>
       <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-    </row>
-    <row r="23" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43935</v>
       </c>
@@ -2249,11 +2215,11 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
-      <c r="AV23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AU23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43935</v>
       </c>
@@ -2293,7 +2259,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43935</v>
       </c>
@@ -2360,9 +2326,8 @@
       <c r="AT25" s="8"/>
       <c r="AU25" s="8"/>
       <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43936</v>
       </c>
@@ -2392,18 +2357,17 @@
       </c>
       <c r="L26"/>
       <c r="Q26"/>
-      <c r="S26"/>
       <c r="T26">
         <v>1</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="AH26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AG26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43936</v>
       </c>
@@ -2427,15 +2391,14 @@
       </c>
       <c r="L27"/>
       <c r="Q27"/>
-      <c r="S27"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="AI27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AH27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>43936</v>
       </c>
@@ -2490,10 +2453,10 @@
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8">
-        <v>1</v>
-      </c>
+      <c r="AI28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="8"/>
       <c r="AK28" s="8"/>
       <c r="AL28" s="8"/>
       <c r="AM28" s="8"/>
@@ -2506,9 +2469,8 @@
       <c r="AT28" s="8"/>
       <c r="AU28" s="8"/>
       <c r="AV28" s="8"/>
-      <c r="AW28" s="8"/>
-    </row>
-    <row r="29" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43937</v>
       </c>
@@ -2560,10 +2522,10 @@
       <c r="AA29"/>
       <c r="AB29"/>
       <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29">
-        <v>1</v>
-      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29"/>
       <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
@@ -2581,9 +2543,8 @@
       <c r="AT29"/>
       <c r="AU29"/>
       <c r="AV29"/>
-      <c r="AW29"/>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43937</v>
       </c>
@@ -2615,18 +2576,17 @@
         <v>1</v>
       </c>
       <c r="Q30"/>
-      <c r="S30"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
+      <c r="AE30">
+        <v>1</v>
+      </c>
       <c r="AF30">
         <v>1</v>
       </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43937</v>
       </c>
@@ -2691,9 +2651,8 @@
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
-      <c r="AW31" s="6"/>
-    </row>
-    <row r="32" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43937</v>
       </c>
@@ -2732,7 +2691,7 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>43937</v>
       </c>
@@ -2797,9 +2756,8 @@
       <c r="AT33" s="8"/>
       <c r="AU33" s="8"/>
       <c r="AV33" s="8"/>
-      <c r="AW33" s="8"/>
-    </row>
-    <row r="34" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>43938</v>
       </c>
@@ -2836,14 +2794,14 @@
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
+      <c r="AQ34" s="6">
+        <v>1</v>
+      </c>
       <c r="AR34" s="6">
         <v>1</v>
       </c>
-      <c r="AS34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43939</v>
       </c>
@@ -2875,7 +2833,9 @@
         <v>1</v>
       </c>
       <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35"/>
@@ -2893,9 +2853,7 @@
       <c r="AC35">
         <v>1</v>
       </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
+      <c r="AD35"/>
       <c r="AE35"/>
       <c r="AF35"/>
       <c r="AG35"/>
@@ -2914,9 +2872,8 @@
       <c r="AT35"/>
       <c r="AU35"/>
       <c r="AV35"/>
-      <c r="AW35"/>
-    </row>
-    <row r="36" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43939</v>
       </c>
@@ -2957,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>43939</v>
       </c>
@@ -2998,7 +2955,7 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
     </row>
-    <row r="38" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>43940</v>
       </c>
@@ -3035,14 +2992,14 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
+      <c r="AS38" s="6">
+        <v>1</v>
+      </c>
       <c r="AT38" s="6">
         <v>1</v>
       </c>
-      <c r="AU38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>43940</v>
       </c>
@@ -3082,7 +3039,7 @@
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941</v>
       </c>
@@ -3114,7 +3071,6 @@
         <v>1</v>
       </c>
       <c r="Q40"/>
-      <c r="S40"/>
       <c r="T40">
         <v>1</v>
       </c>
@@ -3122,7 +3078,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942</v>
       </c>
@@ -3146,7 +3102,6 @@
       </c>
       <c r="L41"/>
       <c r="Q41"/>
-      <c r="S41"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -3157,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43942</v>
       </c>
@@ -3224,9 +3179,8 @@
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
       <c r="AV42" s="6"/>
-      <c r="AW42" s="6"/>
-    </row>
-    <row r="43" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43943</v>
       </c>
@@ -3293,9 +3247,8 @@
       <c r="AT43"/>
       <c r="AU43"/>
       <c r="AV43"/>
-      <c r="AW43"/>
-    </row>
-    <row r="44" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43943</v>
       </c>
@@ -3362,9 +3315,8 @@
       <c r="AT44"/>
       <c r="AU44"/>
       <c r="AV44"/>
-      <c r="AW44"/>
-    </row>
-    <row r="45" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43943</v>
       </c>
@@ -3435,9 +3387,8 @@
       <c r="AT45"/>
       <c r="AU45"/>
       <c r="AV45"/>
-      <c r="AW45"/>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43944</v>
       </c>
@@ -3467,12 +3418,11 @@
         <v>1</v>
       </c>
       <c r="Q46"/>
-      <c r="S46"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43944</v>
       </c>
@@ -3505,12 +3455,11 @@
       </c>
       <c r="L47"/>
       <c r="Q47"/>
-      <c r="S47"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43944</v>
       </c>
@@ -3540,7 +3489,6 @@
         <v>1</v>
       </c>
       <c r="Q48"/>
-      <c r="S48"/>
       <c r="U48" s="4">
         <v>1</v>
       </c>
@@ -3549,7 +3497,7 @@
       </c>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>43944</v>
       </c>
@@ -3593,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>43944</v>
       </c>
@@ -3631,7 +3579,7 @@
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
     </row>
-    <row r="51" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43945</v>
       </c>
@@ -3698,9 +3646,8 @@
       <c r="AT51"/>
       <c r="AU51"/>
       <c r="AV51"/>
-      <c r="AW51"/>
-    </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43945</v>
       </c>
@@ -3729,12 +3676,11 @@
       <c r="Q52">
         <v>1</v>
       </c>
-      <c r="S52"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>43946</v>
       </c>
@@ -3771,7 +3717,7 @@
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
     </row>
-    <row r="54" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>43946</v>
       </c>
@@ -3807,7 +3753,7 @@
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
     </row>
-    <row r="55" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>43946</v>
       </c>
@@ -3834,11 +3780,11 @@
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
-      <c r="AW55" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AV55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43947</v>
       </c>
@@ -3878,11 +3824,11 @@
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
-      <c r="AI56" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43947</v>
       </c>
@@ -3918,14 +3864,14 @@
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
+      <c r="AW57" s="6">
+        <v>1</v>
+      </c>
       <c r="AX57" s="6">
         <v>1</v>
       </c>
-      <c r="AY57" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>43948</v>
       </c>
@@ -3972,11 +3918,11 @@
       <c r="AB58" s="6">
         <v>1</v>
       </c>
-      <c r="AZ58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43948</v>
       </c>
@@ -4012,11 +3958,11 @@
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
-      <c r="BA59" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43949</v>
       </c>
@@ -4057,7 +4003,7 @@
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
     </row>
-    <row r="61" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43950</v>
       </c>
@@ -4102,7 +4048,7 @@
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
     </row>
-    <row r="62" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>43950</v>
       </c>
@@ -4141,7 +4087,7 @@
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
     </row>
-    <row r="63" spans="1:55" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43950</v>
       </c>
@@ -4209,12 +4155,11 @@
       <c r="AY63"/>
       <c r="AZ63"/>
       <c r="BA63"/>
-      <c r="BB63"/>
-      <c r="BC63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BB63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>43951</v>
       </c>
@@ -4285,13 +4230,12 @@
       <c r="AX64" s="6"/>
       <c r="AY64" s="6"/>
       <c r="AZ64" s="6"/>
-      <c r="BA64" s="6"/>
-      <c r="BB64" s="6">
-        <v>1</v>
-      </c>
-      <c r="BC64" s="6"/>
-    </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BA64" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB64" s="6"/>
+    </row>
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>43951</v>
       </c>
@@ -4319,11 +4263,12 @@
       <c r="J65" s="4">
         <v>1</v>
       </c>
+      <c r="S65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>43952</v>
       </c>
@@ -4367,7 +4312,7 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
     </row>
-    <row r="67" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>43952</v>
       </c>
@@ -4409,11 +4354,11 @@
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
-      <c r="AZ67" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AY67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>43953</v>
       </c>
@@ -4435,17 +4380,18 @@
       <c r="H68" t="s">
         <v>11</v>
       </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+      <c r="S68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
-      <c r="AD68">
-        <v>1</v>
-      </c>
-      <c r="BC68" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BB68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>43954</v>
       </c>
@@ -4470,12 +4416,13 @@
       <c r="M69" s="4">
         <v>1</v>
       </c>
+      <c r="S69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="BC69" s="6"/>
-    </row>
-    <row r="70" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB69" s="6"/>
+    </row>
+    <row r="70" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>43954</v>
       </c>
@@ -4513,11 +4460,11 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
-      <c r="BD70" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BC70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>43957</v>
       </c>
@@ -4548,15 +4495,16 @@
       <c r="K71" s="4">
         <v>1</v>
       </c>
+      <c r="S71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
-      <c r="AZ71">
-        <v>1</v>
-      </c>
-      <c r="BC71" s="6"/>
-    </row>
-    <row r="72" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY71">
+        <v>1</v>
+      </c>
+      <c r="BB71" s="6"/>
+    </row>
+    <row r="72" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>43957</v>
       </c>
@@ -4596,17 +4544,17 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
-      <c r="AZ72" s="6">
+      <c r="AY72" s="6">
+        <v>1</v>
+      </c>
+      <c r="BD72" s="6">
         <v>1</v>
       </c>
       <c r="BE72" s="6">
         <v>1</v>
       </c>
-      <c r="BF72" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>43957</v>
       </c>
@@ -4626,7 +4574,7 @@
         <v>4</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>11</v>
@@ -4649,11 +4597,11 @@
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
-      <c r="AZ73" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>43957</v>
       </c>
@@ -4697,7 +4645,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
     </row>
-    <row r="75" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>43958</v>
       </c>
@@ -4742,11 +4690,11 @@
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
-      <c r="BE75" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>43960</v>
       </c>
@@ -4786,14 +4734,14 @@
       <c r="W76" s="7">
         <v>1</v>
       </c>
-      <c r="BA76" s="6">
-        <v>1</v>
-      </c>
-      <c r="BC76" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AZ76" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>43960</v>
       </c>
@@ -4832,11 +4780,11 @@
       <c r="U77" s="10"/>
       <c r="V77" s="10"/>
       <c r="W77" s="10"/>
-      <c r="BC77" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>43960</v>
       </c>
@@ -4867,7 +4815,9 @@
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
+      <c r="N78" s="10">
+        <v>1</v>
+      </c>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
@@ -4876,14 +4826,11 @@
       <c r="U78" s="10"/>
       <c r="V78" s="10"/>
       <c r="W78" s="10"/>
-      <c r="AD78" s="8">
-        <v>1</v>
-      </c>
-      <c r="BE78" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>43962</v>
       </c>
@@ -4922,11 +4869,11 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
-      <c r="BG79" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BF79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>43963</v>
       </c>
@@ -4943,10 +4890,10 @@
         <v>68</v>
       </c>
       <c r="G80" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="I80" s="7">
         <v>1</v>
@@ -4966,11 +4913,11 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
-      <c r="BE80" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>43971</v>
       </c>
@@ -5001,7 +4948,9 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
+      <c r="N81" s="7">
+        <v>1</v>
+      </c>
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
@@ -5012,14 +4961,11 @@
       <c r="W81" s="7">
         <v>1</v>
       </c>
-      <c r="AD81" s="6">
-        <v>1</v>
-      </c>
-      <c r="BG81" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BF81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>43972</v>
       </c>
@@ -5050,12 +4996,13 @@
       <c r="L82" s="4">
         <v>1</v>
       </c>
+      <c r="S82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
-      <c r="BC82" s="6"/>
-    </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BB82" s="6"/>
+    </row>
+    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>43974</v>
       </c>
@@ -5077,11 +5024,12 @@
       <c r="H83" t="s">
         <v>8</v>
       </c>
+      <c r="S83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
-      <c r="BC83" s="6"/>
-      <c r="BH83">
+      <c r="BB83" s="6"/>
+      <c r="BG83">
         <v>1</v>
       </c>
     </row>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3040E5-1A84-4C91-82D7-91DD61F7137E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66572E7B-E097-4DA6-87E0-0CB4BCB8EA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8910" windowWidth="28770" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{624D74EE-AA30-42C4-983C-3B3F9BA9D390}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Frank Rodríguez López:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+74 años en la base de datos de cubadata
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="105">
   <si>
     <t>provincia</t>
   </si>
@@ -389,7 +414,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +443,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -443,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -474,6 +515,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,8 +764,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG83" headerRowDxfId="70">
-  <autoFilter ref="A1:BG83" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG84" headerRowDxfId="70">
+  <autoFilter ref="A1:BG84" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BB67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1055,11 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG83"/>
+  <dimension ref="A1:BG84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5033,6 +5075,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="84" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19">
+        <v>43980</v>
+      </c>
+      <c r="B84" s="19">
+        <v>43954</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="6">
+        <v>77</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7">
+        <v>1</v>
+      </c>
+      <c r="L84" s="7">
+        <v>1</v>
+      </c>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66572E7B-E097-4DA6-87E0-0CB4BCB8EA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73BA4D4-6E7F-4ABD-A75A-46077305F98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8910" windowWidth="28770" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7620" windowWidth="28770" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="107">
   <si>
     <t>provincia</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>Insuficiencia Venosa Periférica</t>
+  </si>
+  <si>
+    <t>Arroyo Naranjo</t>
+  </si>
+  <si>
+    <t>Miocardiopatía Dilatada</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -516,11 +522,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="72">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -764,71 +774,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BG84" headerRowDxfId="70">
-  <autoFilter ref="A1:BG84" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BH85" headerRowDxfId="71">
+  <autoFilter ref="A1:BH85" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState ref="A2:BB67">
     <sortCondition ref="A1:A67"/>
   </sortState>
-  <tableColumns count="59">
-    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="69"/>
-    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="67"/>
+  <tableColumns count="60">
+    <tableColumn id="1" xr3:uid="{BC48E4D1-CA92-43F9-B15F-8B4AA6F28125}" name="Fecha de fallecimiento" totalsRowLabel="Total" dataDxfId="70"/>
+    <tableColumn id="49" xr3:uid="{5FD695AB-784C-4531-B1E4-275D8C46736C}" name="Fecha de detección" totalsRowDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{7E977D2B-86C3-4AB4-B2B7-D95B66241C9C}" name="sexo" dataDxfId="68"/>
     <tableColumn id="3" xr3:uid="{17C6E5D9-6AC5-4F4B-AAD9-7DDD8D7C6756}" name="edad"/>
     <tableColumn id="4" xr3:uid="{56FD56BB-76B8-4EEB-A922-A7E5CFDA8389}" name="Nacionalidad"/>
     <tableColumn id="5" xr3:uid="{0254E852-FB09-49A4-ACA2-FB3969ACD460}" name="diasevolucion"/>
     <tableColumn id="6" xr3:uid="{339A6354-F056-4199-AC0B-20EC4DA08AA3}" name="municipio"/>
     <tableColumn id="7" xr3:uid="{180D6C9F-A10F-4C49-A8DD-31E3F2D4C1BC}" name="provincia"/>
-    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="35"/>
-    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="34"/>
-    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="33"/>
-    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="32"/>
-    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="31"/>
-    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="30"/>
-    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="29"/>
-    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a Repetición" totalsRowFunction="sum" totalsRowDxfId="28"/>
-    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="27"/>
-    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="26"/>
-    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="Ulcera Péptica" totalsRowFunction="sum" totalsRowDxfId="25"/>
-    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="Fumador" totalsRowFunction="sum" totalsRowDxfId="24"/>
-    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="Miastenia Grave" totalsRowFunction="sum" totalsRowDxfId="23"/>
-    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="22"/>
-    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="Dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="21"/>
-    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name="Aneurisma de la Aorta" totalsRowFunction="sum" totalsRowDxfId="20"/>
-    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="Neumopatía Crónica" totalsRowFunction="sum" totalsRowDxfId="19"/>
-    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="18"/>
-    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso Perianal" totalsRowFunction="sum" totalsRowDxfId="17"/>
-    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="16"/>
-    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía Diabética" totalsRowFunction="sum" totalsRowDxfId="15"/>
-    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="Insuficiencia Córtico Suprarrenal" totalsRowFunction="sum" totalsRowDxfId="14"/>
-    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="13"/>
-    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" Hipoacusia Moderada" totalsRowDxfId="12"/>
-    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="Retraso Mental" totalsRowDxfId="11"/>
-    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="10"/>
-    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="9"/>
-    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="8"/>
-    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="56" xr3:uid="{90CCF9AB-E14F-4250-BC9E-D3FDA39564ED}" name="Infecciones Respiratorias Frecuentes" totalsRowDxfId="5"/>
-    <tableColumn id="57" xr3:uid="{D4DF81D0-996B-4C9C-A844-FE9CCFC1BD35}" name="Enfermedad Cerebrovascular" totalsRowDxfId="4"/>
-    <tableColumn id="58" xr3:uid="{4187083A-C91C-4A6B-BF25-D9A91D352DCD}" name="Neoplasia de Esófago" totalsRowDxfId="3"/>
-    <tableColumn id="59" xr3:uid="{7F4A65B7-4A7B-46DA-BD9B-20BB464D48D1}" name="Neoplacia de Pulmón" totalsRowDxfId="2"/>
-    <tableColumn id="60" xr3:uid="{31E5E17C-23F2-4B9C-8CDF-A4AD467ACA51}" name="Insuficiencia Venosa Periférica" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{F12B7272-1E43-4A01-A2AD-0187ADC61B5F}" name="Hipertensión Arterial" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{A1C47904-027E-46DA-89E2-2011D1E9603D}" name="Diabetes Mellitus" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{4D3B42A8-6A33-4C5F-9347-96F8764587B7}" name="Cardiopatía Isquémica" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="25" xr3:uid="{1509BD4B-F801-4DF5-A0AE-994731C954A7}" name="Insuficiencia Renal Crónica" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{2E337FE7-6B56-4E71-BF8C-E65845070BA4}" name="Cancer" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{6C399DE6-7753-42DF-A1D6-5AFF89535BFF}" name="Enfermedad Pulmonar" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{A1AFD2C8-705A-4181-BA80-63F587EE6110}" name="Asma Bronquial" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{18787BF7-35CE-4866-AE1B-B3B911FDA74E}" name="Demencia Senil" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="29" xr3:uid="{57751D34-CB50-40DB-B617-3AA5CC15C595}" name="Obesidad" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{6A18CA90-61E2-44E7-9A14-FCF5583C8F86}" name="Fractura de Cadera" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="23" xr3:uid="{516BCF2A-6905-4EB4-955B-DB579307DD81}" name="Insuficiencia Cardiaca" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="24" xr3:uid="{608785C8-8C35-498B-940E-CA17CAD74188}" name="Hipotiroidismo" totalsRowFunction="sum" totalsRowDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{3F8426E6-8537-4B6B-9EE7-BCA18E29D4E4}" name="Osteoartrosis" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{AC2FE962-6770-426B-B4A6-55BA3B53D6A0}" name="Comunicación Interventricular" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="18" xr3:uid="{290A02AD-92EE-4D88-AEDF-78AA7A853122}" name="Desnutrición" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{68C754DA-E1A1-4F46-A271-4974EB53AB51}" name="Colitis Ulcerativa Idiopática" totalsRowFunction="sum" totalsRowDxfId="38"/>
+    <tableColumn id="20" xr3:uid="{A4738E59-23FE-4237-A643-8CF7A10F35BD}" name="Demencia Vascular " totalsRowFunction="sum" totalsRowDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{8B922641-F9AD-417F-880F-DB2F2D97104B}" name="Sepsis Respiratoria" totalsRowFunction="sum" totalsRowDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{EA584A0F-32A7-4DE6-BEB1-B25F840B81A0}" name="Enfermedad Diverticular del Colon" totalsRowFunction="sum" totalsRowDxfId="35"/>
+    <tableColumn id="26" xr3:uid="{562148D0-2A9B-4016-ACB7-9E67FC741E6E}" name="Glaucoma " totalsRowFunction="sum" totalsRowDxfId="34"/>
+    <tableColumn id="27" xr3:uid="{FFF72260-B2C8-499F-82AC-210B54775238}" name="Inmunodeficiencia" totalsRowFunction="sum" totalsRowDxfId="33"/>
+    <tableColumn id="30" xr3:uid="{0AC7E78F-4416-4881-991D-FA7EA84CE844}" name="Hepatitis C" totalsRowFunction="sum" totalsRowDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{5CA5E7A9-CB4D-450B-BD91-066A5E2CF030}" name="Cardiopatía Hipertensiva" totalsRowFunction="sum" totalsRowDxfId="31"/>
+    <tableColumn id="32" xr3:uid="{7B4C1404-89BC-4C62-8D7A-034B53492036}" name="Síndrome de Leriche" totalsRowFunction="sum" totalsRowDxfId="30"/>
+    <tableColumn id="33" xr3:uid="{FC58F1C5-1D4A-4D7F-8C86-7C7370FF9693}" name="Neuropatías a Repetición" totalsRowFunction="sum" totalsRowDxfId="29"/>
+    <tableColumn id="34" xr3:uid="{E058CF47-38BE-4FAA-9320-02AEDA12E67E}" name="Cirrosis Hepática" totalsRowFunction="sum" totalsRowDxfId="28"/>
+    <tableColumn id="35" xr3:uid="{6809F523-2EB0-4381-B612-F53D7CF3952C}" name="Linfangitis Crónica" totalsRowFunction="sum" totalsRowDxfId="27"/>
+    <tableColumn id="36" xr3:uid="{B6A96FF2-C717-4735-85D4-E59740E9C02B}" name="Ulcera Péptica" totalsRowFunction="sum" totalsRowDxfId="26"/>
+    <tableColumn id="37" xr3:uid="{66ED406D-6F3B-43E5-8CC3-5F3EA9D141CF}" name="Fumador" totalsRowFunction="sum" totalsRowDxfId="25"/>
+    <tableColumn id="38" xr3:uid="{1C4F7684-ED2F-404F-B27C-37BFB1A2964F}" name="Miastenia Grave" totalsRowFunction="sum" totalsRowDxfId="24"/>
+    <tableColumn id="39" xr3:uid="{61278DDA-D841-42D5-B3F5-EF48ABDC738A}" name="Infarto anterior" totalsRowFunction="sum" totalsRowDxfId="23"/>
+    <tableColumn id="40" xr3:uid="{B5A4128B-6F46-40C6-8714-182BC81B5BDD}" name="Dos stem puestos" totalsRowFunction="sum" totalsRowDxfId="22"/>
+    <tableColumn id="41" xr3:uid="{A9C58C51-D336-4E2E-89B6-BAA88F259301}" name="Aneurisma de la Aorta" totalsRowFunction="sum" totalsRowDxfId="21"/>
+    <tableColumn id="42" xr3:uid="{44C4BF4B-E1E3-4B47-A64D-98EC87FE93D5}" name="Neumopatía Crónica" totalsRowFunction="sum" totalsRowDxfId="20"/>
+    <tableColumn id="43" xr3:uid="{E6D39A4B-4FEC-4A13-88BC-F2804C0036F8}" name="Leucemia Mieloide Crónica" totalsRowFunction="sum" totalsRowDxfId="19"/>
+    <tableColumn id="44" xr3:uid="{2A3EE376-838A-4C9F-B61F-F9B41B0A919E}" name="Absceso Perianal" totalsRowFunction="sum" totalsRowDxfId="18"/>
+    <tableColumn id="45" xr3:uid="{9BBC7868-6385-43EC-AEBA-3EB5F6642835}" name="Alzheimer " totalsRowFunction="sum" totalsRowDxfId="17"/>
+    <tableColumn id="46" xr3:uid="{2A0B0D8D-842E-4FA6-8709-4A3BF0A1BD7E}" name="Retinopatía Diabética" totalsRowFunction="sum" totalsRowDxfId="16"/>
+    <tableColumn id="47" xr3:uid="{D6E2516D-A78F-4825-833A-09B81FA828C4}" name="Insuficiencia Córtico Suprarrenal" totalsRowFunction="sum" totalsRowDxfId="15"/>
+    <tableColumn id="48" xr3:uid="{6FC7A0CC-30A6-4DC6-82CF-45DDD5D4BFF3}" name="VIH" totalsRowDxfId="14"/>
+    <tableColumn id="50" xr3:uid="{0B3F74D6-726D-421A-A364-F0520D4A2864}" name=" Hipoacusia Moderada" totalsRowDxfId="13"/>
+    <tableColumn id="51" xr3:uid="{3B10CB25-4706-4B6D-9AA0-EB502C5E3A49}" name="Retraso Mental" totalsRowDxfId="12"/>
+    <tableColumn id="52" xr3:uid="{9A5A69A7-890E-4548-812D-EB36318EC98D}" name="Encamado" totalsRowDxfId="11"/>
+    <tableColumn id="53" xr3:uid="{B158F5BF-B5E8-49A7-9BD8-FD746FD23A3E}" name="Esquizofrenia Paranoide" totalsRowDxfId="10"/>
+    <tableColumn id="54" xr3:uid="{34FB1B63-765B-47A6-86F7-8C0B18C82EBD}" name="Enfermedad Cerebral Crónica" totalsRowDxfId="9"/>
+    <tableColumn id="55" xr3:uid="{125253D3-CA9D-4733-A9BE-763D77AE660C}" name="Alcoholismo" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="56" xr3:uid="{90CCF9AB-E14F-4250-BC9E-D3FDA39564ED}" name="Infecciones Respiratorias Frecuentes" totalsRowDxfId="6"/>
+    <tableColumn id="57" xr3:uid="{D4DF81D0-996B-4C9C-A844-FE9CCFC1BD35}" name="Enfermedad Cerebrovascular" totalsRowDxfId="5"/>
+    <tableColumn id="58" xr3:uid="{4187083A-C91C-4A6B-BF25-D9A91D352DCD}" name="Neoplasia de Esófago" totalsRowDxfId="4"/>
+    <tableColumn id="59" xr3:uid="{7F4A65B7-4A7B-46DA-BD9B-20BB464D48D1}" name="Neoplacia de Pulmón" totalsRowDxfId="3"/>
+    <tableColumn id="60" xr3:uid="{31E5E17C-23F2-4B9C-8CDF-A4AD467ACA51}" name="Insuficiencia Venosa Periférica" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{7A2D7F3B-DE79-4F01-95E9-91FCCFFBF914}" name="Miocardiopatía Dilatada" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1097,11 +1108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG84"/>
+  <dimension ref="A1:BH85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1170,7 @@
     <col min="55" max="55" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1337,8 +1348,11 @@
       <c r="BG1" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
@@ -1360,7 +1374,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43916</v>
       </c>
@@ -1388,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -1422,7 +1436,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43918</v>
       </c>
@@ -1490,7 +1504,7 @@
       <c r="AU5"/>
       <c r="AV5"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -1533,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43920</v>
       </c>
@@ -1570,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43923</v>
       </c>
@@ -1604,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43925</v>
       </c>
@@ -1668,7 +1682,7 @@
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43926</v>
       </c>
@@ -1696,7 +1710,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43927</v>
       </c>
@@ -1724,7 +1738,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43927</v>
       </c>
@@ -1788,7 +1802,7 @@
       <c r="AU12"/>
       <c r="AV12"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43929</v>
       </c>
@@ -1819,7 +1833,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43929</v>
       </c>
@@ -1855,7 +1869,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -1892,7 +1906,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43929</v>
       </c>
@@ -4959,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>43971</v>
       </c>
@@ -5007,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>43972</v>
       </c>
@@ -5044,7 +5058,7 @@
       <c r="W82" s="4"/>
       <c r="BB82" s="6"/>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>43974</v>
       </c>
@@ -5075,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>43980</v>
       </c>
@@ -5117,6 +5131,44 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A85" s="19">
+        <v>43992</v>
+      </c>
+      <c r="B85" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>80</v>
+      </c>
+      <c r="E85" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="L85" s="4">
+        <v>1</v>
+      </c>
+      <c r="S85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="BB85" s="6"/>
+      <c r="BG85" s="6"/>
+      <c r="BH85">
         <v>1</v>
       </c>
     </row>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frankr\Documents\GitHub\covid19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73BA4D4-6E7F-4ABD-A75A-46077305F98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2248EA0A-3413-4139-A406-24087398CF0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7620" windowWidth="28770" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6120" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="107">
   <si>
     <t>provincia</t>
   </si>
@@ -421,7 +421,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -521,8 +521,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,13 +744,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -774,9 +775,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BH85" headerRowDxfId="71">
-  <autoFilter ref="A1:BH85" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
-  <sortState ref="A2:BB67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BH87" headerRowDxfId="71">
+  <autoFilter ref="A1:BH87" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BB67">
     <sortCondition ref="A1:A67"/>
   </sortState>
   <tableColumns count="60">
@@ -1108,11 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH85"/>
+  <dimension ref="A1:BH87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5172,6 +5173,87 @@
         <v>1</v>
       </c>
     </row>
+    <row r="86" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
+        <v>44008</v>
+      </c>
+      <c r="B86" s="20">
+        <v>43988</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="6">
+        <v>78</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="6">
+        <v>23</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="7">
+        <v>1</v>
+      </c>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+    </row>
+    <row r="87" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22">
+        <v>44020</v>
+      </c>
+      <c r="B87" s="20">
+        <v>44022</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="6">
+        <v>68</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="7">
+        <v>1</v>
+      </c>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/muertes.xlsx
+++ b/data/muertes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\covid19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Biblioteca\Documentos\GitHub\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2248EA0A-3413-4139-A406-24087398CF0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9BF65F-B26E-41BD-82A9-2293CF25F4EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6120" windowWidth="21600" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="107">
   <si>
     <t>provincia</t>
   </si>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -524,6 +524,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,8 +777,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BH87" headerRowDxfId="71">
-  <autoFilter ref="A1:BH87" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01EFB1E0-DF30-4122-AAB4-F5D6E499C05D}" name="Tabla1" displayName="Tabla1" ref="A1:BH89" headerRowDxfId="71">
+  <autoFilter ref="A1:BH89" xr:uid="{167BE04B-C69B-4785-8905-7B89CB13FD9D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BB67">
     <sortCondition ref="A1:A67"/>
   </sortState>
@@ -1109,11 +1111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH87"/>
+  <dimension ref="A1:BH89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD87"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5173,66 +5175,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22">
-        <v>44008</v>
-      </c>
-      <c r="B86" s="20">
-        <v>43988</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="6">
-        <v>78</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F86" s="6">
-        <v>23</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="6" t="s">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A86" s="24">
+        <v>43999</v>
+      </c>
+      <c r="B86" s="21">
+        <v>43976</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" t="s">
         <v>11</v>
       </c>
-      <c r="I86" s="7">
-        <v>1</v>
-      </c>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
+      <c r="S86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="BB86" s="6"/>
+      <c r="BG86" s="6"/>
     </row>
     <row r="87" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
-        <v>44020</v>
+        <v>44008</v>
       </c>
       <c r="B87" s="20">
-        <v>44022</v>
+        <v>43988</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="F87" s="6">
+        <v>23</v>
+      </c>
       <c r="G87" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>11</v>
@@ -5254,6 +5246,74 @@
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
     </row>
+    <row r="88" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22">
+        <v>44020</v>
+      </c>
+      <c r="B88" s="20">
+        <v>44022</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="6">
+        <v>68</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="7">
+        <v>1</v>
+      </c>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+    </row>
+    <row r="89" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
+        <v>44046</v>
+      </c>
+      <c r="B89" s="21">
+        <v>44042</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>84</v>
+      </c>
+      <c r="E89" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" t="s">
+        <v>48</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="S89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="BB89" s="6"/>
+      <c r="BG89" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
